--- a/archivos/LibroVentas.xlsx
+++ b/archivos/LibroVentas.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50855562-37C8-4C6F-9BCF-624B2F4CE8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA163A6A-5AEB-4ED0-A514-8A8794C03E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -400,11 +400,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,7 +442,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -522,7 +532,10 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -537,7 +550,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,6 +583,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,7 +926,7 @@
   <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I7" sqref="I7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,1199 +937,1199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="46" t="s">
+      <c r="E5" s="46"/>
+      <c r="F5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46" t="s">
+      <c r="G5" s="45"/>
+      <c r="H5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="46" t="s">
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="46" t="s">
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="45" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="5"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="46"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="45"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="12"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="11"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="53"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="52"/>
       <c r="G8" s="53"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="12"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="12"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="11"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="11"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="11"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="11"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="11"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="11"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="12"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="11"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="54"/>
       <c r="E18" s="54"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="12"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="11"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="11"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="14"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="12"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="11"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="11"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="11"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="11"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="11"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="11"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="11"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="11"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="11"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="11"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="11"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="11"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="17"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="72"/>
       <c r="M34" s="56"/>
       <c r="N34" s="56"/>
       <c r="O34" s="56"/>
       <c r="P34" s="56"/>
-      <c r="Q34" s="18"/>
+      <c r="Q34" s="17"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="72"/>
       <c r="M35" s="56"/>
       <c r="N35" s="56"/>
       <c r="O35" s="56"/>
       <c r="P35" s="56"/>
-      <c r="Q35" s="18"/>
+      <c r="Q35" s="17"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="72"/>
       <c r="M36" s="56"/>
       <c r="N36" s="56"/>
       <c r="O36" s="56"/>
       <c r="P36" s="56"/>
-      <c r="Q36" s="18"/>
+      <c r="Q36" s="17"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="72"/>
       <c r="M37" s="56"/>
       <c r="N37" s="56"/>
       <c r="O37" s="56"/>
       <c r="P37" s="56"/>
-      <c r="Q37" s="18"/>
+      <c r="Q37" s="17"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="72"/>
       <c r="M38" s="56"/>
       <c r="N38" s="56"/>
       <c r="O38" s="56"/>
       <c r="P38" s="56"/>
-      <c r="Q38" s="20"/>
+      <c r="Q38" s="19"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="72"/>
       <c r="M39" s="56"/>
       <c r="N39" s="56"/>
       <c r="O39" s="56"/>
       <c r="P39" s="56"/>
-      <c r="Q39" s="20"/>
+      <c r="Q39" s="19"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="72"/>
       <c r="M40" s="56"/>
       <c r="N40" s="56"/>
       <c r="O40" s="56"/>
       <c r="P40" s="56"/>
-      <c r="Q40" s="20"/>
+      <c r="Q40" s="19"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="72"/>
       <c r="M41" s="56"/>
       <c r="N41" s="56"/>
       <c r="O41" s="56"/>
       <c r="P41" s="56"/>
-      <c r="Q41" s="20"/>
+      <c r="Q41" s="19"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="72"/>
       <c r="M42" s="56"/>
       <c r="N42" s="56"/>
       <c r="O42" s="56"/>
       <c r="P42" s="56"/>
-      <c r="Q42" s="20"/>
+      <c r="Q42" s="19"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="72"/>
       <c r="M43" s="56"/>
       <c r="N43" s="56"/>
       <c r="O43" s="56"/>
       <c r="P43" s="56"/>
-      <c r="Q43" s="20"/>
+      <c r="Q43" s="19"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="72"/>
       <c r="M44" s="56"/>
       <c r="N44" s="56"/>
       <c r="O44" s="56"/>
       <c r="P44" s="56"/>
-      <c r="Q44" s="20"/>
+      <c r="Q44" s="19"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="72"/>
       <c r="M45" s="56"/>
       <c r="N45" s="56"/>
       <c r="O45" s="56"/>
       <c r="P45" s="56"/>
-      <c r="Q45" s="20"/>
+      <c r="Q45" s="19"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="72"/>
       <c r="M46" s="56"/>
       <c r="N46" s="56"/>
       <c r="O46" s="56"/>
       <c r="P46" s="56"/>
-      <c r="Q46" s="20"/>
+      <c r="Q46" s="19"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="72"/>
       <c r="M47" s="56"/>
       <c r="N47" s="56"/>
       <c r="O47" s="56"/>
       <c r="P47" s="56"/>
-      <c r="Q47" s="20"/>
+      <c r="Q47" s="19"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="72"/>
       <c r="M48" s="56"/>
       <c r="N48" s="56"/>
       <c r="O48" s="56"/>
       <c r="P48" s="56"/>
-      <c r="Q48" s="20"/>
+      <c r="Q48" s="19"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="72"/>
       <c r="M49" s="56"/>
       <c r="N49" s="56"/>
       <c r="O49" s="56"/>
       <c r="P49" s="56"/>
-      <c r="Q49" s="20"/>
+      <c r="Q49" s="19"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="72"/>
       <c r="M50" s="56"/>
       <c r="N50" s="56"/>
       <c r="O50" s="56"/>
       <c r="P50" s="56"/>
-      <c r="Q50" s="20"/>
+      <c r="Q50" s="19"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="72"/>
       <c r="M51" s="56"/>
       <c r="N51" s="56"/>
       <c r="O51" s="56"/>
       <c r="P51" s="56"/>
-      <c r="Q51" s="20"/>
+      <c r="Q51" s="19"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="72"/>
       <c r="M52" s="56"/>
       <c r="N52" s="56"/>
       <c r="O52" s="56"/>
       <c r="P52" s="56"/>
-      <c r="Q52" s="20"/>
+      <c r="Q52" s="19"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="72"/>
       <c r="M53" s="56"/>
       <c r="N53" s="56"/>
       <c r="O53" s="56"/>
       <c r="P53" s="56"/>
-      <c r="Q53" s="20"/>
+      <c r="Q53" s="19"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="71"/>
+      <c r="L54" s="72"/>
       <c r="M54" s="56"/>
       <c r="N54" s="56"/>
       <c r="O54" s="56"/>
       <c r="P54" s="56"/>
-      <c r="Q54" s="20"/>
+      <c r="Q54" s="19"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="71"/>
+      <c r="L55" s="72"/>
       <c r="M55" s="56"/>
       <c r="N55" s="56"/>
       <c r="O55" s="56"/>
       <c r="P55" s="56"/>
-      <c r="Q55" s="20"/>
+      <c r="Q55" s="19"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="55"/>
       <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="51"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="72"/>
       <c r="M56" s="57"/>
       <c r="N56" s="57"/>
       <c r="O56" s="57"/>
       <c r="P56" s="57"/>
-      <c r="Q56" s="23"/>
+      <c r="Q56" s="22"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="58"/>
-      <c r="L57" s="58"/>
-      <c r="M57" s="59"/>
-      <c r="N57" s="59"/>
-      <c r="O57" s="59"/>
-      <c r="P57" s="59"/>
-      <c r="Q57" s="23"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="72"/>
+      <c r="M57" s="58"/>
+      <c r="N57" s="58"/>
+      <c r="O57" s="58"/>
+      <c r="P57" s="58"/>
+      <c r="Q57" s="22"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="21"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="55"/>
       <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="51"/>
-      <c r="M58" s="59"/>
-      <c r="N58" s="59"/>
-      <c r="O58" s="59"/>
-      <c r="P58" s="59"/>
-      <c r="Q58" s="23"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="72"/>
+      <c r="M58" s="58"/>
+      <c r="N58" s="58"/>
+      <c r="O58" s="58"/>
+      <c r="P58" s="58"/>
+      <c r="Q58" s="22"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="21"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="55"/>
       <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="58"/>
-      <c r="L59" s="58"/>
-      <c r="M59" s="51"/>
-      <c r="N59" s="51"/>
-      <c r="O59" s="51"/>
-      <c r="P59" s="51"/>
-      <c r="Q59" s="23"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="71"/>
+      <c r="L59" s="72"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="50"/>
+      <c r="O59" s="50"/>
+      <c r="P59" s="50"/>
+      <c r="Q59" s="22"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="58"/>
-      <c r="L60" s="58"/>
-      <c r="M60" s="51"/>
-      <c r="N60" s="51"/>
-      <c r="O60" s="51"/>
-      <c r="P60" s="51"/>
-      <c r="Q60" s="23"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="71"/>
+      <c r="L60" s="72"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="50"/>
+      <c r="P60" s="50"/>
+      <c r="Q60" s="22"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="58"/>
-      <c r="L61" s="58"/>
-      <c r="M61" s="51"/>
-      <c r="N61" s="51"/>
-      <c r="O61" s="51"/>
-      <c r="P61" s="51"/>
-      <c r="Q61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="72"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="50"/>
+      <c r="P61" s="50"/>
+      <c r="Q61" s="22"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="58"/>
-      <c r="L62" s="58"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="72"/>
       <c r="M62" s="55"/>
       <c r="N62" s="55"/>
       <c r="O62" s="55"/>
@@ -2119,223 +2137,223 @@
       <c r="Q62" s="4"/>
     </row>
     <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="61"/>
-      <c r="K63" s="61"/>
-      <c r="L63" s="61"/>
-      <c r="M63" s="62"/>
-      <c r="N63" s="62"/>
-      <c r="O63" s="62"/>
-      <c r="P63" s="62"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="60"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="61"/>
+      <c r="P63" s="61"/>
       <c r="Q63" s="4"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="63" t="s">
+      <c r="A64" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="63"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="65">
-        <f>SUM(F47:G57)</f>
+      <c r="B64" s="62"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="64">
+        <f>SUM(F7:G62)</f>
         <v>0</v>
       </c>
-      <c r="G64" s="65"/>
-      <c r="H64" s="31">
-        <f>SUM(H7:H44)</f>
+      <c r="G64" s="64"/>
+      <c r="H64" s="30">
+        <f>SUM(H7:H62)</f>
         <v>0</v>
       </c>
-      <c r="I64" s="65">
+      <c r="I64" s="64">
         <v>0</v>
       </c>
-      <c r="J64" s="65"/>
-      <c r="K64" s="65"/>
-      <c r="L64" s="65"/>
-      <c r="M64" s="65"/>
-      <c r="N64" s="65"/>
-      <c r="O64" s="65"/>
-      <c r="P64" s="65"/>
-      <c r="Q64" s="19"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="64"/>
+      <c r="L64" s="64"/>
+      <c r="M64" s="64"/>
+      <c r="N64" s="64"/>
+      <c r="O64" s="64"/>
+      <c r="P64" s="64"/>
+      <c r="Q64" s="18"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="32"/>
-      <c r="Q65" s="20"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="19"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="66" t="s">
+      <c r="A66" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="66"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="66" t="s">
+      <c r="B66" s="65"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="G66" s="66"/>
-      <c r="H66" s="66"/>
-      <c r="I66" s="67" t="s">
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="68" t="s">
+      <c r="J66" s="66"/>
+      <c r="K66" s="66"/>
+      <c r="L66" s="66"/>
+      <c r="M66" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="N66" s="68"/>
-      <c r="O66" s="68"/>
-      <c r="P66" s="68"/>
-      <c r="Q66" s="34"/>
+      <c r="N66" s="67"/>
+      <c r="O66" s="67"/>
+      <c r="P66" s="67"/>
+      <c r="Q66" s="33"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="66"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="35" t="s">
+      <c r="A67" s="65"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J67" s="69" t="s">
+      <c r="J67" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="K67" s="69"/>
-      <c r="L67" s="69"/>
-      <c r="M67" s="35" t="s">
+      <c r="K67" s="68"/>
+      <c r="L67" s="68"/>
+      <c r="M67" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="N67" s="20"/>
-      <c r="O67" s="36" t="s">
+      <c r="N67" s="19"/>
+      <c r="O67" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="20"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="19"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="70" t="s">
+      <c r="A68" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="35" t="s">
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="22">
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="21">
         <f>F59/1.13</f>
         <v>0</v>
       </c>
-      <c r="J68" s="71">
+      <c r="J68" s="70">
         <f>I63*0.13</f>
         <v>0</v>
       </c>
-      <c r="K68" s="71"/>
-      <c r="L68" s="71"/>
-      <c r="M68" s="69"/>
-      <c r="N68" s="69"/>
-      <c r="O68" s="69"/>
-      <c r="P68" s="69"/>
-      <c r="Q68" s="35"/>
+      <c r="K68" s="70"/>
+      <c r="L68" s="70"/>
+      <c r="M68" s="68"/>
+      <c r="N68" s="68"/>
+      <c r="O68" s="68"/>
+      <c r="P68" s="68"/>
+      <c r="Q68" s="34"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="70"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="35" t="s">
+      <c r="A69" s="69"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="69"/>
-      <c r="K69" s="69"/>
-      <c r="L69" s="69"/>
-      <c r="M69" s="69"/>
-      <c r="N69" s="69"/>
-      <c r="O69" s="69"/>
-      <c r="P69" s="69"/>
-      <c r="Q69" s="35"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="68"/>
+      <c r="L69" s="68"/>
+      <c r="M69" s="68"/>
+      <c r="N69" s="68"/>
+      <c r="O69" s="68"/>
+      <c r="P69" s="68"/>
+      <c r="Q69" s="34"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="70" t="s">
+      <c r="A70" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="70"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="35" t="s">
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="39">
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="38">
         <f>H59</f>
         <v>0</v>
       </c>
-      <c r="J70" s="69"/>
-      <c r="K70" s="69"/>
-      <c r="L70" s="69"/>
-      <c r="M70" s="69"/>
-      <c r="N70" s="69"/>
-      <c r="O70" s="69"/>
-      <c r="P70" s="69"/>
-      <c r="Q70" s="35"/>
+      <c r="J70" s="68"/>
+      <c r="K70" s="68"/>
+      <c r="L70" s="68"/>
+      <c r="M70" s="68"/>
+      <c r="N70" s="68"/>
+      <c r="O70" s="68"/>
+      <c r="P70" s="68"/>
+      <c r="Q70" s="34"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="70"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="32"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="30"/>
-      <c r="N71" s="32"/>
-      <c r="O71" s="32"/>
-      <c r="P71" s="32"/>
-      <c r="Q71" s="32"/>
+      <c r="A71" s="69"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="31"/>
+      <c r="O71" s="31"/>
+      <c r="P71" s="31"/>
+      <c r="Q71" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="255">
+  <mergeCells count="258">
     <mergeCell ref="A68:D69"/>
     <mergeCell ref="J68:L68"/>
     <mergeCell ref="M68:N68"/>
@@ -2569,6 +2587,7 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="M12:P12"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="I7:L7"/>
@@ -2580,6 +2599,8 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="M9:P9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:P3"/>
@@ -2592,9 +2613,6 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="H5:H6"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Error " error="Dato invalido, revise los comentarios de la columna para saber que información va en esta columna" sqref="I38:L44" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/archivos/LibroVentas.xlsx
+++ b/archivos/LibroVentas.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA163A6A-5AEB-4ED0-A514-8A8794C03E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59A2939-EA62-4A6D-8001-CA8884A0C1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Libro de ventas" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,9 +466,6 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -529,6 +526,12 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -583,12 +586,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:L7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,1453 +934,2350 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="45" t="s">
+      <c r="E5" s="45"/>
+      <c r="F5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45" t="s">
+      <c r="G5" s="44"/>
+      <c r="H5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="45" t="s">
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="45" t="s">
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="5"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="45"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="44"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
       <c r="Q7" s="11"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
       <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
       <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
       <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
       <c r="Q11" s="11"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
       <c r="Q12" s="11"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
       <c r="Q13" s="11"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
       <c r="Q14" s="11"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
       <c r="Q15" s="11"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
       <c r="Q16" s="11"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="15"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
       <c r="Q17" s="11"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="16"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
       <c r="Q18" s="11"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
       <c r="Q19" s="11"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
       <c r="Q20" s="11"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
       <c r="Q21" s="11"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="53"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
       <c r="Q22" s="11"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
       <c r="Q23" s="11"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="53"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
       <c r="Q24" s="11"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="53"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
       <c r="Q25" s="11"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="53"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
       <c r="Q26" s="11"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="53"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54"/>
       <c r="H27" s="14"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
       <c r="H28" s="14"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
       <c r="Q28" s="11"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="53"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
       <c r="H29" s="14"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
       <c r="Q29" s="11"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="53"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="54"/>
       <c r="H30" s="14"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
       <c r="Q30" s="11"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="53"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="54"/>
       <c r="H31" s="14"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
       <c r="Q31" s="11"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="53"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="54"/>
       <c r="H32" s="14"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
       <c r="Q32" s="11"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="13"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="53"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="54"/>
       <c r="H33" s="14"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
       <c r="Q33" s="17"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="53"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="54"/>
       <c r="H34" s="14"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
       <c r="Q34" s="17"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="53"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="54"/>
       <c r="H35" s="18"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
       <c r="Q35" s="17"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="16"/>
       <c r="C36" s="13"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
       <c r="Q36" s="17"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="16"/>
       <c r="C37" s="13"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="54"/>
       <c r="H37" s="18"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="56"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
       <c r="Q37" s="17"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="16"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="53"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="54"/>
       <c r="H38" s="18"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="56"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
       <c r="Q38" s="19"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="16"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="54"/>
       <c r="H39" s="18"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
       <c r="Q39" s="19"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="16"/>
       <c r="C40" s="13"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="53"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="54"/>
       <c r="H40" s="18"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="56"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
       <c r="Q40" s="19"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="16"/>
       <c r="C41" s="13"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="53"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="54"/>
       <c r="H41" s="18"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="56"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
       <c r="Q41" s="19"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
+      <c r="A42" s="6"/>
       <c r="B42" s="16"/>
       <c r="C42" s="13"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="54"/>
       <c r="H42" s="18"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
       <c r="Q42" s="19"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="16"/>
       <c r="C43" s="13"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="53"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="54"/>
       <c r="H43" s="18"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
       <c r="Q43" s="19"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="16"/>
       <c r="C44" s="13"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="54"/>
       <c r="H44" s="18"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="56"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
       <c r="Q44" s="19"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="16"/>
       <c r="C45" s="13"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="53"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="54"/>
       <c r="H45" s="18"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="72"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="56"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
       <c r="Q45" s="19"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
+      <c r="A46" s="6"/>
       <c r="B46" s="16"/>
       <c r="C46" s="13"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="54"/>
       <c r="H46" s="18"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="56"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
       <c r="Q46" s="19"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
+      <c r="A47" s="6"/>
       <c r="B47" s="16"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="54"/>
       <c r="H47" s="18"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="56"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="57"/>
+      <c r="N47" s="57"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="57"/>
       <c r="Q47" s="19"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
+      <c r="A48" s="6"/>
       <c r="B48" s="16"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="53"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="54"/>
       <c r="H48" s="18"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="57"/>
       <c r="Q48" s="19"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
+      <c r="A49" s="6"/>
       <c r="B49" s="16"/>
       <c r="C49" s="13"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="54"/>
       <c r="H49" s="18"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="72"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="56"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="57"/>
       <c r="Q49" s="19"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
+      <c r="A50" s="6"/>
       <c r="B50" s="16"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="54"/>
       <c r="H50" s="18"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="56"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
       <c r="Q50" s="19"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
+      <c r="A51" s="6"/>
       <c r="B51" s="16"/>
       <c r="C51" s="13"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="54"/>
       <c r="H51" s="18"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="56"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="57"/>
       <c r="Q51" s="19"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
+      <c r="A52" s="6"/>
       <c r="B52" s="16"/>
       <c r="C52" s="13"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="54"/>
       <c r="H52" s="18"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="56"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
       <c r="Q52" s="19"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
+      <c r="A53" s="6"/>
       <c r="B53" s="16"/>
       <c r="C53" s="13"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="54"/>
       <c r="H53" s="18"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="71"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="56"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
       <c r="Q53" s="19"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
+      <c r="A54" s="6"/>
       <c r="B54" s="16"/>
       <c r="C54" s="13"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="54"/>
       <c r="H54" s="18"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="56"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="57"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="57"/>
       <c r="Q54" s="19"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
+      <c r="A55" s="6"/>
       <c r="B55" s="16"/>
       <c r="C55" s="13"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="54"/>
       <c r="H55" s="18"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="56"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="57"/>
+      <c r="N55" s="57"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="57"/>
       <c r="Q55" s="19"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
+      <c r="A56" s="6"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="54"/>
       <c r="H56" s="21"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="71"/>
-      <c r="L56" s="72"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="57"/>
-      <c r="P56" s="57"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="58"/>
+      <c r="N56" s="58"/>
+      <c r="O56" s="58"/>
+      <c r="P56" s="58"/>
       <c r="Q56" s="22"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
+      <c r="A57" s="6"/>
       <c r="B57" s="16"/>
       <c r="C57" s="20"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="53"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="54"/>
       <c r="H57" s="18"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="72"/>
-      <c r="M57" s="58"/>
-      <c r="N57" s="58"/>
-      <c r="O57" s="58"/>
-      <c r="P57" s="58"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="51"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="59"/>
       <c r="Q57" s="22"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
+      <c r="A58" s="6"/>
       <c r="B58" s="16"/>
       <c r="C58" s="20"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="54"/>
       <c r="H58" s="18"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="71"/>
-      <c r="L58" s="72"/>
-      <c r="M58" s="58"/>
-      <c r="N58" s="58"/>
-      <c r="O58" s="58"/>
-      <c r="P58" s="58"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="51"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="59"/>
+      <c r="O58" s="59"/>
+      <c r="P58" s="59"/>
       <c r="Q58" s="22"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
+      <c r="A59" s="6"/>
       <c r="B59" s="16"/>
       <c r="C59" s="20"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="53"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="54"/>
       <c r="H59" s="18"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="72"/>
-      <c r="M59" s="50"/>
-      <c r="N59" s="50"/>
-      <c r="O59" s="50"/>
-      <c r="P59" s="50"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="51"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="49"/>
       <c r="Q59" s="22"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
+      <c r="A60" s="6"/>
       <c r="B60" s="16"/>
       <c r="C60" s="13"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="54"/>
       <c r="H60" s="18"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="71"/>
-      <c r="L60" s="72"/>
-      <c r="M60" s="50"/>
-      <c r="N60" s="50"/>
-      <c r="O60" s="50"/>
-      <c r="P60" s="50"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="49"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="49"/>
       <c r="Q60" s="22"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="24"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="13"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="53"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="54"/>
       <c r="H61" s="18"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="71"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="50"/>
-      <c r="N61" s="50"/>
-      <c r="O61" s="50"/>
-      <c r="P61" s="50"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
       <c r="Q61" s="22"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="24"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="13"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="54"/>
       <c r="H62" s="18"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="71"/>
-      <c r="L62" s="72"/>
-      <c r="M62" s="55"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="55"/>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="4"/>
-    </row>
-    <row r="63" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="61"/>
-      <c r="N63" s="61"/>
-      <c r="O63" s="61"/>
-      <c r="P63" s="61"/>
-      <c r="Q63" s="4"/>
-    </row>
-    <row r="64" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="62" t="s">
+      <c r="I62" s="49"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="51"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="22"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="51"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="22"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="51"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="22"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="51"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="49"/>
+      <c r="Q65" s="22"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="51"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
+      <c r="P66" s="49"/>
+      <c r="Q66" s="22"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="51"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="49"/>
+      <c r="P67" s="49"/>
+      <c r="Q67" s="22"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="51"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="49"/>
+      <c r="O68" s="49"/>
+      <c r="P68" s="49"/>
+      <c r="Q68" s="22"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="49"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="51"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="49"/>
+      <c r="O69" s="49"/>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="22"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="51"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="49"/>
+      <c r="O70" s="49"/>
+      <c r="P70" s="49"/>
+      <c r="Q70" s="22"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="51"/>
+      <c r="M71" s="49"/>
+      <c r="N71" s="49"/>
+      <c r="O71" s="49"/>
+      <c r="P71" s="49"/>
+      <c r="Q71" s="22"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="51"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="49"/>
+      <c r="O72" s="49"/>
+      <c r="P72" s="49"/>
+      <c r="Q72" s="22"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="51"/>
+      <c r="M73" s="49"/>
+      <c r="N73" s="49"/>
+      <c r="O73" s="49"/>
+      <c r="P73" s="49"/>
+      <c r="Q73" s="22"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="50"/>
+      <c r="K74" s="50"/>
+      <c r="L74" s="51"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="49"/>
+      <c r="O74" s="49"/>
+      <c r="P74" s="49"/>
+      <c r="Q74" s="22"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="51"/>
+      <c r="M75" s="49"/>
+      <c r="N75" s="49"/>
+      <c r="O75" s="49"/>
+      <c r="P75" s="49"/>
+      <c r="Q75" s="22"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="49"/>
+      <c r="N76" s="49"/>
+      <c r="O76" s="49"/>
+      <c r="P76" s="49"/>
+      <c r="Q76" s="22"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="49"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="51"/>
+      <c r="M77" s="49"/>
+      <c r="N77" s="49"/>
+      <c r="O77" s="49"/>
+      <c r="P77" s="49"/>
+      <c r="Q77" s="22"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="49"/>
+      <c r="N78" s="49"/>
+      <c r="O78" s="49"/>
+      <c r="P78" s="49"/>
+      <c r="Q78" s="22"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="49"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="51"/>
+      <c r="M79" s="49"/>
+      <c r="N79" s="49"/>
+      <c r="O79" s="49"/>
+      <c r="P79" s="49"/>
+      <c r="Q79" s="22"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="49"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="50"/>
+      <c r="L80" s="51"/>
+      <c r="M80" s="49"/>
+      <c r="N80" s="49"/>
+      <c r="O80" s="49"/>
+      <c r="P80" s="49"/>
+      <c r="Q80" s="22"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="49"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="50"/>
+      <c r="L81" s="51"/>
+      <c r="M81" s="49"/>
+      <c r="N81" s="49"/>
+      <c r="O81" s="49"/>
+      <c r="P81" s="49"/>
+      <c r="Q81" s="22"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="49"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="50"/>
+      <c r="L82" s="51"/>
+      <c r="M82" s="49"/>
+      <c r="N82" s="49"/>
+      <c r="O82" s="49"/>
+      <c r="P82" s="49"/>
+      <c r="Q82" s="22"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="53"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="49"/>
+      <c r="J83" s="50"/>
+      <c r="K83" s="50"/>
+      <c r="L83" s="51"/>
+      <c r="M83" s="49"/>
+      <c r="N83" s="49"/>
+      <c r="O83" s="49"/>
+      <c r="P83" s="49"/>
+      <c r="Q83" s="22"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="49"/>
+      <c r="J84" s="50"/>
+      <c r="K84" s="50"/>
+      <c r="L84" s="51"/>
+      <c r="M84" s="49"/>
+      <c r="N84" s="49"/>
+      <c r="O84" s="49"/>
+      <c r="P84" s="49"/>
+      <c r="Q84" s="22"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="50"/>
+      <c r="K85" s="50"/>
+      <c r="L85" s="51"/>
+      <c r="M85" s="49"/>
+      <c r="N85" s="49"/>
+      <c r="O85" s="49"/>
+      <c r="P85" s="49"/>
+      <c r="Q85" s="22"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="51"/>
+      <c r="M86" s="49"/>
+      <c r="N86" s="49"/>
+      <c r="O86" s="49"/>
+      <c r="P86" s="49"/>
+      <c r="Q86" s="22"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="53"/>
+      <c r="G87" s="54"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="49"/>
+      <c r="J87" s="50"/>
+      <c r="K87" s="50"/>
+      <c r="L87" s="51"/>
+      <c r="M87" s="49"/>
+      <c r="N87" s="49"/>
+      <c r="O87" s="49"/>
+      <c r="P87" s="49"/>
+      <c r="Q87" s="22"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="50"/>
+      <c r="K88" s="50"/>
+      <c r="L88" s="51"/>
+      <c r="M88" s="49"/>
+      <c r="N88" s="49"/>
+      <c r="O88" s="49"/>
+      <c r="P88" s="49"/>
+      <c r="Q88" s="22"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="54"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="50"/>
+      <c r="K89" s="50"/>
+      <c r="L89" s="51"/>
+      <c r="M89" s="49"/>
+      <c r="N89" s="49"/>
+      <c r="O89" s="49"/>
+      <c r="P89" s="49"/>
+      <c r="Q89" s="22"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="49"/>
+      <c r="J90" s="50"/>
+      <c r="K90" s="50"/>
+      <c r="L90" s="51"/>
+      <c r="M90" s="49"/>
+      <c r="N90" s="49"/>
+      <c r="O90" s="49"/>
+      <c r="P90" s="49"/>
+      <c r="Q90" s="22"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="50"/>
+      <c r="K91" s="50"/>
+      <c r="L91" s="51"/>
+      <c r="M91" s="49"/>
+      <c r="N91" s="49"/>
+      <c r="O91" s="49"/>
+      <c r="P91" s="49"/>
+      <c r="Q91" s="22"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="50"/>
+      <c r="K92" s="50"/>
+      <c r="L92" s="51"/>
+      <c r="M92" s="49"/>
+      <c r="N92" s="49"/>
+      <c r="O92" s="49"/>
+      <c r="P92" s="49"/>
+      <c r="Q92" s="22"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="53"/>
+      <c r="G93" s="54"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="49"/>
+      <c r="J93" s="50"/>
+      <c r="K93" s="50"/>
+      <c r="L93" s="51"/>
+      <c r="M93" s="49"/>
+      <c r="N93" s="49"/>
+      <c r="O93" s="49"/>
+      <c r="P93" s="49"/>
+      <c r="Q93" s="22"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="53"/>
+      <c r="G94" s="54"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="49"/>
+      <c r="J94" s="50"/>
+      <c r="K94" s="50"/>
+      <c r="L94" s="51"/>
+      <c r="M94" s="49"/>
+      <c r="N94" s="49"/>
+      <c r="O94" s="49"/>
+      <c r="P94" s="49"/>
+      <c r="Q94" s="22"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="6"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="53"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="49"/>
+      <c r="J95" s="50"/>
+      <c r="K95" s="50"/>
+      <c r="L95" s="51"/>
+      <c r="M95" s="49"/>
+      <c r="N95" s="49"/>
+      <c r="O95" s="49"/>
+      <c r="P95" s="49"/>
+      <c r="Q95" s="22"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="54"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="49"/>
+      <c r="J96" s="50"/>
+      <c r="K96" s="50"/>
+      <c r="L96" s="51"/>
+      <c r="M96" s="49"/>
+      <c r="N96" s="49"/>
+      <c r="O96" s="49"/>
+      <c r="P96" s="49"/>
+      <c r="Q96" s="22"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="6"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="54"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="49"/>
+      <c r="J97" s="50"/>
+      <c r="K97" s="50"/>
+      <c r="L97" s="51"/>
+      <c r="M97" s="49"/>
+      <c r="N97" s="49"/>
+      <c r="O97" s="49"/>
+      <c r="P97" s="49"/>
+      <c r="Q97" s="22"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="53"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="49"/>
+      <c r="J98" s="50"/>
+      <c r="K98" s="50"/>
+      <c r="L98" s="51"/>
+      <c r="M98" s="49"/>
+      <c r="N98" s="49"/>
+      <c r="O98" s="49"/>
+      <c r="P98" s="49"/>
+      <c r="Q98" s="22"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="49"/>
+      <c r="J99" s="50"/>
+      <c r="K99" s="50"/>
+      <c r="L99" s="51"/>
+      <c r="M99" s="49"/>
+      <c r="N99" s="49"/>
+      <c r="O99" s="49"/>
+      <c r="P99" s="49"/>
+      <c r="Q99" s="22"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="48"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="54"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="49"/>
+      <c r="J100" s="50"/>
+      <c r="K100" s="50"/>
+      <c r="L100" s="51"/>
+      <c r="M100" s="49"/>
+      <c r="N100" s="49"/>
+      <c r="O100" s="49"/>
+      <c r="P100" s="49"/>
+      <c r="Q100" s="22"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="48"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="54"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="49"/>
+      <c r="J101" s="50"/>
+      <c r="K101" s="50"/>
+      <c r="L101" s="51"/>
+      <c r="M101" s="56"/>
+      <c r="N101" s="56"/>
+      <c r="O101" s="56"/>
+      <c r="P101" s="56"/>
+      <c r="Q101" s="4"/>
+    </row>
+    <row r="102" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="24"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="60"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="61"/>
+      <c r="J102" s="61"/>
+      <c r="K102" s="61"/>
+      <c r="L102" s="61"/>
+      <c r="M102" s="62"/>
+      <c r="N102" s="62"/>
+      <c r="O102" s="62"/>
+      <c r="P102" s="62"/>
+      <c r="Q102" s="4"/>
+    </row>
+    <row r="103" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="64">
-        <f>SUM(F7:G62)</f>
+      <c r="B103" s="63"/>
+      <c r="C103" s="63"/>
+      <c r="D103" s="64"/>
+      <c r="E103" s="64"/>
+      <c r="F103" s="65">
+        <f>SUM(F7:G101)</f>
         <v>0</v>
       </c>
-      <c r="G64" s="64"/>
-      <c r="H64" s="30">
-        <f>SUM(H7:H62)</f>
+      <c r="G103" s="65"/>
+      <c r="H103" s="29">
+        <f>SUM(H7:H101)</f>
         <v>0</v>
       </c>
-      <c r="I64" s="64">
+      <c r="I103" s="65">
         <v>0</v>
       </c>
-      <c r="J64" s="64"/>
-      <c r="K64" s="64"/>
-      <c r="L64" s="64"/>
-      <c r="M64" s="64"/>
-      <c r="N64" s="64"/>
-      <c r="O64" s="64"/>
-      <c r="P64" s="64"/>
-      <c r="Q64" s="18"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="19"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="65" t="s">
+      <c r="J103" s="65"/>
+      <c r="K103" s="65"/>
+      <c r="L103" s="65"/>
+      <c r="M103" s="65"/>
+      <c r="N103" s="65"/>
+      <c r="O103" s="65"/>
+      <c r="P103" s="65"/>
+      <c r="Q103" s="18"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" s="30"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="30"/>
+      <c r="M104" s="30"/>
+      <c r="N104" s="30"/>
+      <c r="O104" s="30"/>
+      <c r="P104" s="30"/>
+      <c r="Q104" s="19"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="65" t="s">
+      <c r="B105" s="66"/>
+      <c r="C105" s="66"/>
+      <c r="D105" s="66"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="66" t="s">
+      <c r="G105" s="66"/>
+      <c r="H105" s="66"/>
+      <c r="I105" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="J66" s="66"/>
-      <c r="K66" s="66"/>
-      <c r="L66" s="66"/>
-      <c r="M66" s="67" t="s">
+      <c r="J105" s="67"/>
+      <c r="K105" s="67"/>
+      <c r="L105" s="67"/>
+      <c r="M105" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="N66" s="67"/>
-      <c r="O66" s="67"/>
-      <c r="P66" s="67"/>
-      <c r="Q66" s="33"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="65"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="34" t="s">
+      <c r="N105" s="68"/>
+      <c r="O105" s="68"/>
+      <c r="P105" s="68"/>
+      <c r="Q105" s="32"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" s="66"/>
+      <c r="B106" s="66"/>
+      <c r="C106" s="66"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="66"/>
+      <c r="G106" s="66"/>
+      <c r="H106" s="66"/>
+      <c r="I106" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J67" s="68" t="s">
+      <c r="J106" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="K67" s="68"/>
-      <c r="L67" s="68"/>
-      <c r="M67" s="34" t="s">
+      <c r="K106" s="69"/>
+      <c r="L106" s="69"/>
+      <c r="M106" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="N67" s="19"/>
-      <c r="O67" s="35" t="s">
+      <c r="N106" s="19"/>
+      <c r="O106" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="P67" s="36"/>
-      <c r="Q67" s="19"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="69" t="s">
+      <c r="P106" s="35"/>
+      <c r="Q106" s="19"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="69"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="34" t="s">
+      <c r="B107" s="70"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="70"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="21">
-        <f>F59/1.13</f>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="21">
+        <f>F103/1.13</f>
         <v>0</v>
       </c>
-      <c r="J68" s="70">
-        <f>I63*0.13</f>
+      <c r="J107" s="71">
+        <f>I107*0.13</f>
         <v>0</v>
       </c>
-      <c r="K68" s="70"/>
-      <c r="L68" s="70"/>
-      <c r="M68" s="68"/>
-      <c r="N68" s="68"/>
-      <c r="O68" s="68"/>
-      <c r="P68" s="68"/>
-      <c r="Q68" s="34"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="69"/>
-      <c r="B69" s="69"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="34" t="s">
+      <c r="K107" s="71"/>
+      <c r="L107" s="71"/>
+      <c r="M107" s="69"/>
+      <c r="N107" s="69"/>
+      <c r="O107" s="69"/>
+      <c r="P107" s="69"/>
+      <c r="Q107" s="33"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" s="70"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="68"/>
-      <c r="L69" s="68"/>
-      <c r="M69" s="68"/>
-      <c r="N69" s="68"/>
-      <c r="O69" s="68"/>
-      <c r="P69" s="68"/>
-      <c r="Q69" s="34"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="69" t="s">
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="69"/>
+      <c r="K108" s="69"/>
+      <c r="L108" s="69"/>
+      <c r="M108" s="69"/>
+      <c r="N108" s="69"/>
+      <c r="O108" s="69"/>
+      <c r="P108" s="69"/>
+      <c r="Q108" s="33"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="69"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="34" t="s">
+      <c r="B109" s="70"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="38">
-        <f>H59</f>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="37">
+        <f>H103</f>
         <v>0</v>
       </c>
-      <c r="J70" s="68"/>
-      <c r="K70" s="68"/>
-      <c r="L70" s="68"/>
-      <c r="M70" s="68"/>
-      <c r="N70" s="68"/>
-      <c r="O70" s="68"/>
-      <c r="P70" s="68"/>
-      <c r="Q70" s="34"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="69"/>
-      <c r="B71" s="69"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="31"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="31"/>
-      <c r="O71" s="31"/>
-      <c r="P71" s="31"/>
-      <c r="Q71" s="31"/>
+      <c r="J109" s="69"/>
+      <c r="K109" s="69"/>
+      <c r="L109" s="69"/>
+      <c r="M109" s="69"/>
+      <c r="N109" s="69"/>
+      <c r="O109" s="69"/>
+      <c r="P109" s="69"/>
+      <c r="Q109" s="33"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" s="70"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="70"/>
+      <c r="D110" s="70"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="39"/>
+      <c r="I110" s="40"/>
+      <c r="J110" s="30"/>
+      <c r="K110" s="30"/>
+      <c r="L110" s="28"/>
+      <c r="M110" s="28"/>
+      <c r="N110" s="30"/>
+      <c r="O110" s="30"/>
+      <c r="P110" s="30"/>
+      <c r="Q110" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="258">
-    <mergeCell ref="A68:D69"/>
-    <mergeCell ref="J68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="J69:L70"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="O69:P70"/>
-    <mergeCell ref="A70:D71"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="A64:C64"/>
+  <mergeCells count="414">
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="I98:L98"/>
+    <mergeCell ref="M98:P98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="I99:L99"/>
+    <mergeCell ref="M99:P99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="I100:L100"/>
+    <mergeCell ref="M100:P100"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="M95:P95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="I96:L96"/>
+    <mergeCell ref="M96:P96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="I97:L97"/>
+    <mergeCell ref="M97:P97"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="I92:L92"/>
+    <mergeCell ref="M92:P92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="I93:L93"/>
+    <mergeCell ref="M93:P93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="M94:P94"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="M89:P89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="I90:L90"/>
+    <mergeCell ref="M90:P90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="M91:P91"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="M86:P86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="I87:L87"/>
+    <mergeCell ref="M87:P87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="I88:L88"/>
+    <mergeCell ref="M88:P88"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="M83:P83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="M84:P84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="I85:L85"/>
+    <mergeCell ref="M85:P85"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="M80:P80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="M81:P81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="M82:P82"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="M77:P77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="M78:P78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="M79:P79"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="M74:P74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="M75:P75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="M76:P76"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="M71:P71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="M72:P72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="M73:P73"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="M68:P68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="M69:P69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="M70:P70"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="M65:P65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="M66:P66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="M67:P67"/>
+    <mergeCell ref="A107:D108"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="O107:P107"/>
+    <mergeCell ref="J108:L109"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="O108:P109"/>
+    <mergeCell ref="A109:D110"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="I103:L103"/>
+    <mergeCell ref="M103:P103"/>
+    <mergeCell ref="A105:D106"/>
+    <mergeCell ref="F105:H106"/>
+    <mergeCell ref="I105:L105"/>
+    <mergeCell ref="M105:P105"/>
+    <mergeCell ref="J106:L106"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="I101:L101"/>
+    <mergeCell ref="M101:P101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="I102:L102"/>
+    <mergeCell ref="M102:P102"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="M62:P62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="M63:P63"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="F64:G64"/>
     <mergeCell ref="I64:L64"/>
     <mergeCell ref="M64:P64"/>
-    <mergeCell ref="A66:D67"/>
-    <mergeCell ref="F66:H67"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="M66:P66"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="M61:P61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="M62:P62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="D65:E65"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="F58:G58"/>
     <mergeCell ref="I58:L58"/>

--- a/archivos/LibroVentas.xlsx
+++ b/archivos/LibroVentas.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C43006E-4A60-41A0-A4AF-737B68EDBC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC808C7-1082-4D8F-AB82-27B172FE0D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Libro de ventas" sheetId="1" r:id="rId1"/>
@@ -514,11 +514,51 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,51 +575,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -914,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:Q172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="I86" sqref="I86:L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,140 +928,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="64" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="64" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64" t="s">
+      <c r="G5" s="50"/>
+      <c r="H5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="64" t="s">
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="64" t="s">
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="50" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="5"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="64"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="50"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -1076,10 +1076,10 @@
       <c r="J7" s="44"/>
       <c r="K7" s="44"/>
       <c r="L7" s="45"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
       <c r="Q7" s="11"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1095,10 +1095,10 @@
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
       <c r="L8" s="45"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
       <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1114,10 +1114,10 @@
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
       <c r="L9" s="45"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
       <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1133,10 +1133,10 @@
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
       <c r="L10" s="45"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
       <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1152,10 +1152,10 @@
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
       <c r="L11" s="45"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
       <c r="Q11" s="11"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1171,10 +1171,10 @@
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
       <c r="L12" s="45"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
       <c r="Q12" s="11"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1190,10 +1190,10 @@
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
       <c r="L13" s="45"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
       <c r="Q13" s="11"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1209,10 +1209,10 @@
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
       <c r="L14" s="45"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
       <c r="Q14" s="11"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1228,10 +1228,10 @@
       <c r="J15" s="44"/>
       <c r="K15" s="44"/>
       <c r="L15" s="45"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
       <c r="Q15" s="11"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1247,10 +1247,10 @@
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
       <c r="L16" s="45"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
       <c r="Q16" s="11"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1266,10 +1266,10 @@
       <c r="J17" s="44"/>
       <c r="K17" s="44"/>
       <c r="L17" s="45"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
       <c r="Q17" s="11"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1285,10 +1285,10 @@
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
       <c r="L18" s="45"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
       <c r="Q18" s="11"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1304,10 +1304,10 @@
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
       <c r="L19" s="45"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
       <c r="Q19" s="11"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -1323,10 +1323,10 @@
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
       <c r="L20" s="45"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
       <c r="Q20" s="11"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -1342,10 +1342,10 @@
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
       <c r="L21" s="45"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
       <c r="Q21" s="11"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -1361,10 +1361,10 @@
       <c r="J22" s="44"/>
       <c r="K22" s="44"/>
       <c r="L22" s="45"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
       <c r="Q22" s="11"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -1380,10 +1380,10 @@
       <c r="J23" s="44"/>
       <c r="K23" s="44"/>
       <c r="L23" s="45"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
       <c r="Q23" s="11"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -1399,10 +1399,10 @@
       <c r="J24" s="44"/>
       <c r="K24" s="44"/>
       <c r="L24" s="45"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
       <c r="Q24" s="11"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -1418,10 +1418,10 @@
       <c r="J25" s="44"/>
       <c r="K25" s="44"/>
       <c r="L25" s="45"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
       <c r="Q25" s="11"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -1437,10 +1437,10 @@
       <c r="J26" s="44"/>
       <c r="K26" s="44"/>
       <c r="L26" s="45"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
       <c r="Q26" s="11"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -1456,10 +1456,10 @@
       <c r="J27" s="44"/>
       <c r="K27" s="44"/>
       <c r="L27" s="45"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
       <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -1475,10 +1475,10 @@
       <c r="J28" s="44"/>
       <c r="K28" s="44"/>
       <c r="L28" s="45"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
       <c r="Q28" s="11"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -1494,10 +1494,10 @@
       <c r="J29" s="44"/>
       <c r="K29" s="44"/>
       <c r="L29" s="45"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="63"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
       <c r="Q29" s="11"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -1513,10 +1513,10 @@
       <c r="J30" s="44"/>
       <c r="K30" s="44"/>
       <c r="L30" s="45"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="63"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
       <c r="Q30" s="11"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -1532,10 +1532,10 @@
       <c r="J31" s="44"/>
       <c r="K31" s="44"/>
       <c r="L31" s="45"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
       <c r="Q31" s="11"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -1551,10 +1551,10 @@
       <c r="J32" s="44"/>
       <c r="K32" s="44"/>
       <c r="L32" s="45"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="63"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
       <c r="Q32" s="11"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -1570,10 +1570,10 @@
       <c r="J33" s="44"/>
       <c r="K33" s="44"/>
       <c r="L33" s="45"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="63"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
       <c r="Q33" s="11"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -1589,10 +1589,10 @@
       <c r="J34" s="44"/>
       <c r="K34" s="44"/>
       <c r="L34" s="45"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="63"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
       <c r="Q34" s="11"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -1608,10 +1608,10 @@
       <c r="J35" s="44"/>
       <c r="K35" s="44"/>
       <c r="L35" s="45"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="63"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
       <c r="Q35" s="11"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -1627,10 +1627,10 @@
       <c r="J36" s="44"/>
       <c r="K36" s="44"/>
       <c r="L36" s="45"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="63"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
       <c r="Q36" s="11"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -1646,10 +1646,10 @@
       <c r="J37" s="44"/>
       <c r="K37" s="44"/>
       <c r="L37" s="45"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="63"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
       <c r="Q37" s="11"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -1665,10 +1665,10 @@
       <c r="J38" s="44"/>
       <c r="K38" s="44"/>
       <c r="L38" s="45"/>
-      <c r="M38" s="63"/>
-      <c r="N38" s="63"/>
-      <c r="O38" s="63"/>
-      <c r="P38" s="63"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
       <c r="Q38" s="11"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -1684,10 +1684,10 @@
       <c r="J39" s="44"/>
       <c r="K39" s="44"/>
       <c r="L39" s="45"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="63"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
       <c r="Q39" s="11"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -1703,10 +1703,10 @@
       <c r="J40" s="44"/>
       <c r="K40" s="44"/>
       <c r="L40" s="45"/>
-      <c r="M40" s="63"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="63"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
       <c r="Q40" s="11"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -1722,10 +1722,10 @@
       <c r="J41" s="44"/>
       <c r="K41" s="44"/>
       <c r="L41" s="45"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
       <c r="Q41" s="11"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -1741,10 +1741,10 @@
       <c r="J42" s="44"/>
       <c r="K42" s="44"/>
       <c r="L42" s="45"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="63"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
       <c r="Q42" s="11"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -1760,10 +1760,10 @@
       <c r="J43" s="44"/>
       <c r="K43" s="44"/>
       <c r="L43" s="45"/>
-      <c r="M43" s="63"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="63"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
       <c r="Q43" s="11"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -1779,10 +1779,10 @@
       <c r="J44" s="44"/>
       <c r="K44" s="44"/>
       <c r="L44" s="45"/>
-      <c r="M44" s="63"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="63"/>
-      <c r="P44" s="63"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
       <c r="Q44" s="11"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -1798,10 +1798,10 @@
       <c r="J45" s="44"/>
       <c r="K45" s="44"/>
       <c r="L45" s="45"/>
-      <c r="M45" s="63"/>
-      <c r="N45" s="63"/>
-      <c r="O45" s="63"/>
-      <c r="P45" s="63"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
       <c r="Q45" s="11"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -1817,10 +1817,10 @@
       <c r="J46" s="44"/>
       <c r="K46" s="44"/>
       <c r="L46" s="45"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="63"/>
-      <c r="O46" s="63"/>
-      <c r="P46" s="63"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
       <c r="Q46" s="11"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -1836,10 +1836,10 @@
       <c r="J47" s="44"/>
       <c r="K47" s="44"/>
       <c r="L47" s="45"/>
-      <c r="M47" s="63"/>
-      <c r="N47" s="63"/>
-      <c r="O47" s="63"/>
-      <c r="P47" s="63"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="46"/>
       <c r="Q47" s="11"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -1855,10 +1855,10 @@
       <c r="J48" s="44"/>
       <c r="K48" s="44"/>
       <c r="L48" s="45"/>
-      <c r="M48" s="63"/>
-      <c r="N48" s="63"/>
-      <c r="O48" s="63"/>
-      <c r="P48" s="63"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
       <c r="Q48" s="11"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -1874,10 +1874,10 @@
       <c r="J49" s="44"/>
       <c r="K49" s="44"/>
       <c r="L49" s="45"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="46"/>
       <c r="Q49" s="11"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -1893,10 +1893,10 @@
       <c r="J50" s="44"/>
       <c r="K50" s="44"/>
       <c r="L50" s="45"/>
-      <c r="M50" s="63"/>
-      <c r="N50" s="63"/>
-      <c r="O50" s="63"/>
-      <c r="P50" s="63"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="46"/>
       <c r="Q50" s="11"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -1912,10 +1912,10 @@
       <c r="J51" s="44"/>
       <c r="K51" s="44"/>
       <c r="L51" s="45"/>
-      <c r="M51" s="63"/>
-      <c r="N51" s="63"/>
-      <c r="O51" s="63"/>
-      <c r="P51" s="63"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="46"/>
       <c r="Q51" s="11"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -1931,10 +1931,10 @@
       <c r="J52" s="44"/>
       <c r="K52" s="44"/>
       <c r="L52" s="45"/>
-      <c r="M52" s="63"/>
-      <c r="N52" s="63"/>
-      <c r="O52" s="63"/>
-      <c r="P52" s="63"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
       <c r="Q52" s="11"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -1950,10 +1950,10 @@
       <c r="J53" s="44"/>
       <c r="K53" s="44"/>
       <c r="L53" s="45"/>
-      <c r="M53" s="63"/>
-      <c r="N53" s="63"/>
-      <c r="O53" s="63"/>
-      <c r="P53" s="63"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="46"/>
       <c r="Q53" s="11"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -1969,10 +1969,10 @@
       <c r="J54" s="44"/>
       <c r="K54" s="44"/>
       <c r="L54" s="45"/>
-      <c r="M54" s="63"/>
-      <c r="N54" s="63"/>
-      <c r="O54" s="63"/>
-      <c r="P54" s="63"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
       <c r="Q54" s="11"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -1988,10 +1988,10 @@
       <c r="J55" s="44"/>
       <c r="K55" s="44"/>
       <c r="L55" s="45"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="63"/>
-      <c r="O55" s="63"/>
-      <c r="P55" s="63"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
       <c r="Q55" s="11"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -2007,10 +2007,10 @@
       <c r="J56" s="44"/>
       <c r="K56" s="44"/>
       <c r="L56" s="45"/>
-      <c r="M56" s="63"/>
-      <c r="N56" s="63"/>
-      <c r="O56" s="63"/>
-      <c r="P56" s="63"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
       <c r="Q56" s="11"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -2026,10 +2026,10 @@
       <c r="J57" s="44"/>
       <c r="K57" s="44"/>
       <c r="L57" s="45"/>
-      <c r="M57" s="63"/>
-      <c r="N57" s="63"/>
-      <c r="O57" s="63"/>
-      <c r="P57" s="63"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="46"/>
       <c r="Q57" s="11"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -2045,10 +2045,10 @@
       <c r="J58" s="44"/>
       <c r="K58" s="44"/>
       <c r="L58" s="45"/>
-      <c r="M58" s="63"/>
-      <c r="N58" s="63"/>
-      <c r="O58" s="63"/>
-      <c r="P58" s="63"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
+      <c r="P58" s="46"/>
       <c r="Q58" s="11"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -2064,10 +2064,10 @@
       <c r="J59" s="44"/>
       <c r="K59" s="44"/>
       <c r="L59" s="45"/>
-      <c r="M59" s="63"/>
-      <c r="N59" s="63"/>
-      <c r="O59" s="63"/>
-      <c r="P59" s="63"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="46"/>
       <c r="Q59" s="11"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -2083,10 +2083,10 @@
       <c r="J60" s="44"/>
       <c r="K60" s="44"/>
       <c r="L60" s="45"/>
-      <c r="M60" s="63"/>
-      <c r="N60" s="63"/>
-      <c r="O60" s="63"/>
-      <c r="P60" s="63"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="46"/>
+      <c r="P60" s="46"/>
       <c r="Q60" s="11"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -2102,10 +2102,10 @@
       <c r="J61" s="44"/>
       <c r="K61" s="44"/>
       <c r="L61" s="45"/>
-      <c r="M61" s="63"/>
-      <c r="N61" s="63"/>
-      <c r="O61" s="63"/>
-      <c r="P61" s="63"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
       <c r="Q61" s="11"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -2121,10 +2121,10 @@
       <c r="J62" s="44"/>
       <c r="K62" s="44"/>
       <c r="L62" s="45"/>
-      <c r="M62" s="63"/>
-      <c r="N62" s="63"/>
-      <c r="O62" s="63"/>
-      <c r="P62" s="63"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="46"/>
+      <c r="P62" s="46"/>
       <c r="Q62" s="11"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -2140,10 +2140,10 @@
       <c r="J63" s="44"/>
       <c r="K63" s="44"/>
       <c r="L63" s="45"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="63"/>
-      <c r="P63" s="63"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="46"/>
       <c r="Q63" s="11"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -2159,10 +2159,10 @@
       <c r="J64" s="44"/>
       <c r="K64" s="44"/>
       <c r="L64" s="45"/>
-      <c r="M64" s="63"/>
-      <c r="N64" s="63"/>
-      <c r="O64" s="63"/>
-      <c r="P64" s="63"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="46"/>
       <c r="Q64" s="11"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -2178,10 +2178,10 @@
       <c r="J65" s="44"/>
       <c r="K65" s="44"/>
       <c r="L65" s="45"/>
-      <c r="M65" s="63"/>
-      <c r="N65" s="63"/>
-      <c r="O65" s="63"/>
-      <c r="P65" s="63"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="46"/>
       <c r="Q65" s="11"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -2197,10 +2197,10 @@
       <c r="J66" s="44"/>
       <c r="K66" s="44"/>
       <c r="L66" s="45"/>
-      <c r="M66" s="63"/>
-      <c r="N66" s="63"/>
-      <c r="O66" s="63"/>
-      <c r="P66" s="63"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="46"/>
+      <c r="O66" s="46"/>
+      <c r="P66" s="46"/>
       <c r="Q66" s="11"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -2216,10 +2216,10 @@
       <c r="J67" s="44"/>
       <c r="K67" s="44"/>
       <c r="L67" s="45"/>
-      <c r="M67" s="63"/>
-      <c r="N67" s="63"/>
-      <c r="O67" s="63"/>
-      <c r="P67" s="63"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="46"/>
+      <c r="O67" s="46"/>
+      <c r="P67" s="46"/>
       <c r="Q67" s="11"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -2235,10 +2235,10 @@
       <c r="J68" s="44"/>
       <c r="K68" s="44"/>
       <c r="L68" s="45"/>
-      <c r="M68" s="63"/>
-      <c r="N68" s="63"/>
-      <c r="O68" s="63"/>
-      <c r="P68" s="63"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="46"/>
+      <c r="O68" s="46"/>
+      <c r="P68" s="46"/>
       <c r="Q68" s="11"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
@@ -2254,10 +2254,10 @@
       <c r="J69" s="44"/>
       <c r="K69" s="44"/>
       <c r="L69" s="45"/>
-      <c r="M69" s="63"/>
-      <c r="N69" s="63"/>
-      <c r="O69" s="63"/>
-      <c r="P69" s="63"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="46"/>
+      <c r="O69" s="46"/>
+      <c r="P69" s="46"/>
       <c r="Q69" s="11"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -2273,10 +2273,10 @@
       <c r="J70" s="44"/>
       <c r="K70" s="44"/>
       <c r="L70" s="45"/>
-      <c r="M70" s="63"/>
-      <c r="N70" s="63"/>
-      <c r="O70" s="63"/>
-      <c r="P70" s="63"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="46"/>
+      <c r="P70" s="46"/>
       <c r="Q70" s="11"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
@@ -2292,10 +2292,10 @@
       <c r="J71" s="44"/>
       <c r="K71" s="44"/>
       <c r="L71" s="45"/>
-      <c r="M71" s="63"/>
-      <c r="N71" s="63"/>
-      <c r="O71" s="63"/>
-      <c r="P71" s="63"/>
+      <c r="M71" s="46"/>
+      <c r="N71" s="46"/>
+      <c r="O71" s="46"/>
+      <c r="P71" s="46"/>
       <c r="Q71" s="11"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -2311,10 +2311,10 @@
       <c r="J72" s="44"/>
       <c r="K72" s="44"/>
       <c r="L72" s="45"/>
-      <c r="M72" s="60"/>
-      <c r="N72" s="60"/>
-      <c r="O72" s="60"/>
-      <c r="P72" s="60"/>
+      <c r="M72" s="54"/>
+      <c r="N72" s="54"/>
+      <c r="O72" s="54"/>
+      <c r="P72" s="54"/>
       <c r="Q72" s="16"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -2330,10 +2330,10 @@
       <c r="J73" s="44"/>
       <c r="K73" s="44"/>
       <c r="L73" s="45"/>
-      <c r="M73" s="60"/>
-      <c r="N73" s="60"/>
-      <c r="O73" s="60"/>
-      <c r="P73" s="60"/>
+      <c r="M73" s="54"/>
+      <c r="N73" s="54"/>
+      <c r="O73" s="54"/>
+      <c r="P73" s="54"/>
       <c r="Q73" s="18"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -2349,10 +2349,10 @@
       <c r="J74" s="44"/>
       <c r="K74" s="44"/>
       <c r="L74" s="45"/>
-      <c r="M74" s="60"/>
-      <c r="N74" s="60"/>
-      <c r="O74" s="60"/>
-      <c r="P74" s="60"/>
+      <c r="M74" s="54"/>
+      <c r="N74" s="54"/>
+      <c r="O74" s="54"/>
+      <c r="P74" s="54"/>
       <c r="Q74" s="18"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -2368,10 +2368,10 @@
       <c r="J75" s="44"/>
       <c r="K75" s="44"/>
       <c r="L75" s="45"/>
-      <c r="M75" s="60"/>
-      <c r="N75" s="60"/>
-      <c r="O75" s="60"/>
-      <c r="P75" s="60"/>
+      <c r="M75" s="54"/>
+      <c r="N75" s="54"/>
+      <c r="O75" s="54"/>
+      <c r="P75" s="54"/>
       <c r="Q75" s="18"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -2387,10 +2387,10 @@
       <c r="J76" s="44"/>
       <c r="K76" s="44"/>
       <c r="L76" s="45"/>
-      <c r="M76" s="60"/>
-      <c r="N76" s="60"/>
-      <c r="O76" s="60"/>
-      <c r="P76" s="60"/>
+      <c r="M76" s="54"/>
+      <c r="N76" s="54"/>
+      <c r="O76" s="54"/>
+      <c r="P76" s="54"/>
       <c r="Q76" s="18"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -2406,10 +2406,10 @@
       <c r="J77" s="44"/>
       <c r="K77" s="44"/>
       <c r="L77" s="45"/>
-      <c r="M77" s="60"/>
-      <c r="N77" s="60"/>
-      <c r="O77" s="60"/>
-      <c r="P77" s="60"/>
+      <c r="M77" s="54"/>
+      <c r="N77" s="54"/>
+      <c r="O77" s="54"/>
+      <c r="P77" s="54"/>
       <c r="Q77" s="18"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -2425,10 +2425,10 @@
       <c r="J78" s="44"/>
       <c r="K78" s="44"/>
       <c r="L78" s="45"/>
-      <c r="M78" s="60"/>
-      <c r="N78" s="60"/>
-      <c r="O78" s="60"/>
-      <c r="P78" s="60"/>
+      <c r="M78" s="54"/>
+      <c r="N78" s="54"/>
+      <c r="O78" s="54"/>
+      <c r="P78" s="54"/>
       <c r="Q78" s="18"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -2444,10 +2444,10 @@
       <c r="J79" s="44"/>
       <c r="K79" s="44"/>
       <c r="L79" s="45"/>
-      <c r="M79" s="60"/>
-      <c r="N79" s="60"/>
-      <c r="O79" s="60"/>
-      <c r="P79" s="60"/>
+      <c r="M79" s="54"/>
+      <c r="N79" s="54"/>
+      <c r="O79" s="54"/>
+      <c r="P79" s="54"/>
       <c r="Q79" s="18"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
@@ -2463,10 +2463,10 @@
       <c r="J80" s="44"/>
       <c r="K80" s="44"/>
       <c r="L80" s="45"/>
-      <c r="M80" s="60"/>
-      <c r="N80" s="60"/>
-      <c r="O80" s="60"/>
-      <c r="P80" s="60"/>
+      <c r="M80" s="54"/>
+      <c r="N80" s="54"/>
+      <c r="O80" s="54"/>
+      <c r="P80" s="54"/>
       <c r="Q80" s="18"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
@@ -2482,10 +2482,10 @@
       <c r="J81" s="44"/>
       <c r="K81" s="44"/>
       <c r="L81" s="45"/>
-      <c r="M81" s="60"/>
-      <c r="N81" s="60"/>
-      <c r="O81" s="60"/>
-      <c r="P81" s="60"/>
+      <c r="M81" s="54"/>
+      <c r="N81" s="54"/>
+      <c r="O81" s="54"/>
+      <c r="P81" s="54"/>
       <c r="Q81" s="18"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
@@ -2501,10 +2501,10 @@
       <c r="J82" s="44"/>
       <c r="K82" s="44"/>
       <c r="L82" s="45"/>
-      <c r="M82" s="60"/>
-      <c r="N82" s="60"/>
-      <c r="O82" s="60"/>
-      <c r="P82" s="60"/>
+      <c r="M82" s="54"/>
+      <c r="N82" s="54"/>
+      <c r="O82" s="54"/>
+      <c r="P82" s="54"/>
       <c r="Q82" s="18"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
@@ -2520,10 +2520,10 @@
       <c r="J83" s="44"/>
       <c r="K83" s="44"/>
       <c r="L83" s="45"/>
-      <c r="M83" s="60"/>
-      <c r="N83" s="60"/>
-      <c r="O83" s="60"/>
-      <c r="P83" s="60"/>
+      <c r="M83" s="54"/>
+      <c r="N83" s="54"/>
+      <c r="O83" s="54"/>
+      <c r="P83" s="54"/>
       <c r="Q83" s="18"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
@@ -2539,10 +2539,10 @@
       <c r="J84" s="44"/>
       <c r="K84" s="44"/>
       <c r="L84" s="45"/>
-      <c r="M84" s="60"/>
-      <c r="N84" s="60"/>
-      <c r="O84" s="60"/>
-      <c r="P84" s="60"/>
+      <c r="M84" s="54"/>
+      <c r="N84" s="54"/>
+      <c r="O84" s="54"/>
+      <c r="P84" s="54"/>
       <c r="Q84" s="18"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
@@ -2558,10 +2558,10 @@
       <c r="J85" s="44"/>
       <c r="K85" s="44"/>
       <c r="L85" s="45"/>
-      <c r="M85" s="60"/>
-      <c r="N85" s="60"/>
-      <c r="O85" s="60"/>
-      <c r="P85" s="60"/>
+      <c r="M85" s="54"/>
+      <c r="N85" s="54"/>
+      <c r="O85" s="54"/>
+      <c r="P85" s="54"/>
       <c r="Q85" s="18"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
@@ -2577,10 +2577,10 @@
       <c r="J86" s="44"/>
       <c r="K86" s="44"/>
       <c r="L86" s="45"/>
-      <c r="M86" s="60"/>
-      <c r="N86" s="60"/>
-      <c r="O86" s="60"/>
-      <c r="P86" s="60"/>
+      <c r="M86" s="54"/>
+      <c r="N86" s="54"/>
+      <c r="O86" s="54"/>
+      <c r="P86" s="54"/>
       <c r="Q86" s="18"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
@@ -2596,10 +2596,10 @@
       <c r="J87" s="44"/>
       <c r="K87" s="44"/>
       <c r="L87" s="45"/>
-      <c r="M87" s="60"/>
-      <c r="N87" s="60"/>
-      <c r="O87" s="60"/>
-      <c r="P87" s="60"/>
+      <c r="M87" s="54"/>
+      <c r="N87" s="54"/>
+      <c r="O87" s="54"/>
+      <c r="P87" s="54"/>
       <c r="Q87" s="18"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
@@ -2615,10 +2615,10 @@
       <c r="J88" s="44"/>
       <c r="K88" s="44"/>
       <c r="L88" s="45"/>
-      <c r="M88" s="60"/>
-      <c r="N88" s="60"/>
-      <c r="O88" s="60"/>
-      <c r="P88" s="60"/>
+      <c r="M88" s="54"/>
+      <c r="N88" s="54"/>
+      <c r="O88" s="54"/>
+      <c r="P88" s="54"/>
       <c r="Q88" s="18"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
@@ -2634,10 +2634,10 @@
       <c r="J89" s="44"/>
       <c r="K89" s="44"/>
       <c r="L89" s="45"/>
-      <c r="M89" s="60"/>
-      <c r="N89" s="60"/>
-      <c r="O89" s="60"/>
-      <c r="P89" s="60"/>
+      <c r="M89" s="54"/>
+      <c r="N89" s="54"/>
+      <c r="O89" s="54"/>
+      <c r="P89" s="54"/>
       <c r="Q89" s="18"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
@@ -2653,10 +2653,10 @@
       <c r="J90" s="44"/>
       <c r="K90" s="44"/>
       <c r="L90" s="45"/>
-      <c r="M90" s="60"/>
-      <c r="N90" s="60"/>
-      <c r="O90" s="60"/>
-      <c r="P90" s="60"/>
+      <c r="M90" s="54"/>
+      <c r="N90" s="54"/>
+      <c r="O90" s="54"/>
+      <c r="P90" s="54"/>
       <c r="Q90" s="18"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
@@ -2672,18 +2672,18 @@
       <c r="J91" s="44"/>
       <c r="K91" s="44"/>
       <c r="L91" s="45"/>
-      <c r="M91" s="61"/>
-      <c r="N91" s="61"/>
-      <c r="O91" s="61"/>
-      <c r="P91" s="61"/>
+      <c r="M91" s="56"/>
+      <c r="N91" s="56"/>
+      <c r="O91" s="56"/>
+      <c r="P91" s="56"/>
       <c r="Q91" s="21"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="15"/>
       <c r="C92" s="19"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="52"/>
       <c r="F92" s="41"/>
       <c r="G92" s="42"/>
       <c r="H92" s="17"/>
@@ -2691,10 +2691,10 @@
       <c r="J92" s="44"/>
       <c r="K92" s="44"/>
       <c r="L92" s="45"/>
-      <c r="M92" s="59"/>
-      <c r="N92" s="59"/>
-      <c r="O92" s="59"/>
-      <c r="P92" s="59"/>
+      <c r="M92" s="57"/>
+      <c r="N92" s="57"/>
+      <c r="O92" s="57"/>
+      <c r="P92" s="57"/>
       <c r="Q92" s="21"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
@@ -2710,10 +2710,10 @@
       <c r="J93" s="44"/>
       <c r="K93" s="44"/>
       <c r="L93" s="45"/>
-      <c r="M93" s="59"/>
-      <c r="N93" s="59"/>
-      <c r="O93" s="59"/>
-      <c r="P93" s="59"/>
+      <c r="M93" s="57"/>
+      <c r="N93" s="57"/>
+      <c r="O93" s="57"/>
+      <c r="P93" s="57"/>
       <c r="Q93" s="21"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
@@ -3516,7 +3516,7 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
-      <c r="B136" s="22"/>
+      <c r="B136" s="15"/>
       <c r="C136" s="13"/>
       <c r="D136" s="40"/>
       <c r="E136" s="40"/>
@@ -3527,406 +3527,1205 @@
       <c r="J136" s="44"/>
       <c r="K136" s="44"/>
       <c r="L136" s="45"/>
-      <c r="M136" s="55"/>
-      <c r="N136" s="55"/>
-      <c r="O136" s="55"/>
-      <c r="P136" s="55"/>
-      <c r="Q136" s="4"/>
-    </row>
-    <row r="137" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="23"/>
-      <c r="B137" s="24"/>
-      <c r="C137" s="25"/>
-      <c r="D137" s="26"/>
-      <c r="E137" s="26"/>
-      <c r="F137" s="56"/>
-      <c r="G137" s="56"/>
-      <c r="H137" s="27"/>
-      <c r="I137" s="57"/>
-      <c r="J137" s="57"/>
-      <c r="K137" s="57"/>
-      <c r="L137" s="57"/>
-      <c r="M137" s="58"/>
-      <c r="N137" s="58"/>
-      <c r="O137" s="58"/>
-      <c r="P137" s="58"/>
-      <c r="Q137" s="4"/>
-    </row>
-    <row r="138" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="49" t="s">
+      <c r="M136" s="43"/>
+      <c r="N136" s="43"/>
+      <c r="O136" s="43"/>
+      <c r="P136" s="43"/>
+      <c r="Q136" s="21"/>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A137" s="6"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="40"/>
+      <c r="E137" s="40"/>
+      <c r="F137" s="41"/>
+      <c r="G137" s="42"/>
+      <c r="H137" s="17"/>
+      <c r="I137" s="43"/>
+      <c r="J137" s="44"/>
+      <c r="K137" s="44"/>
+      <c r="L137" s="45"/>
+      <c r="M137" s="43"/>
+      <c r="N137" s="43"/>
+      <c r="O137" s="43"/>
+      <c r="P137" s="43"/>
+      <c r="Q137" s="21"/>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A138" s="6"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="40"/>
+      <c r="E138" s="40"/>
+      <c r="F138" s="41"/>
+      <c r="G138" s="42"/>
+      <c r="H138" s="17"/>
+      <c r="I138" s="43"/>
+      <c r="J138" s="44"/>
+      <c r="K138" s="44"/>
+      <c r="L138" s="45"/>
+      <c r="M138" s="43"/>
+      <c r="N138" s="43"/>
+      <c r="O138" s="43"/>
+      <c r="P138" s="43"/>
+      <c r="Q138" s="21"/>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A139" s="6"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="40"/>
+      <c r="E139" s="40"/>
+      <c r="F139" s="41"/>
+      <c r="G139" s="42"/>
+      <c r="H139" s="17"/>
+      <c r="I139" s="43"/>
+      <c r="J139" s="44"/>
+      <c r="K139" s="44"/>
+      <c r="L139" s="45"/>
+      <c r="M139" s="43"/>
+      <c r="N139" s="43"/>
+      <c r="O139" s="43"/>
+      <c r="P139" s="43"/>
+      <c r="Q139" s="21"/>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A140" s="6"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="40"/>
+      <c r="E140" s="40"/>
+      <c r="F140" s="41"/>
+      <c r="G140" s="42"/>
+      <c r="H140" s="17"/>
+      <c r="I140" s="43"/>
+      <c r="J140" s="44"/>
+      <c r="K140" s="44"/>
+      <c r="L140" s="45"/>
+      <c r="M140" s="43"/>
+      <c r="N140" s="43"/>
+      <c r="O140" s="43"/>
+      <c r="P140" s="43"/>
+      <c r="Q140" s="21"/>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A141" s="6"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="40"/>
+      <c r="E141" s="40"/>
+      <c r="F141" s="41"/>
+      <c r="G141" s="42"/>
+      <c r="H141" s="17"/>
+      <c r="I141" s="43"/>
+      <c r="J141" s="44"/>
+      <c r="K141" s="44"/>
+      <c r="L141" s="45"/>
+      <c r="M141" s="43"/>
+      <c r="N141" s="43"/>
+      <c r="O141" s="43"/>
+      <c r="P141" s="43"/>
+      <c r="Q141" s="21"/>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A142" s="6"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="40"/>
+      <c r="E142" s="40"/>
+      <c r="F142" s="41"/>
+      <c r="G142" s="42"/>
+      <c r="H142" s="17"/>
+      <c r="I142" s="43"/>
+      <c r="J142" s="44"/>
+      <c r="K142" s="44"/>
+      <c r="L142" s="45"/>
+      <c r="M142" s="43"/>
+      <c r="N142" s="43"/>
+      <c r="O142" s="43"/>
+      <c r="P142" s="43"/>
+      <c r="Q142" s="21"/>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A143" s="6"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="40"/>
+      <c r="E143" s="40"/>
+      <c r="F143" s="41"/>
+      <c r="G143" s="42"/>
+      <c r="H143" s="17"/>
+      <c r="I143" s="43"/>
+      <c r="J143" s="44"/>
+      <c r="K143" s="44"/>
+      <c r="L143" s="45"/>
+      <c r="M143" s="43"/>
+      <c r="N143" s="43"/>
+      <c r="O143" s="43"/>
+      <c r="P143" s="43"/>
+      <c r="Q143" s="21"/>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A144" s="6"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="40"/>
+      <c r="E144" s="40"/>
+      <c r="F144" s="41"/>
+      <c r="G144" s="42"/>
+      <c r="H144" s="17"/>
+      <c r="I144" s="43"/>
+      <c r="J144" s="44"/>
+      <c r="K144" s="44"/>
+      <c r="L144" s="45"/>
+      <c r="M144" s="43"/>
+      <c r="N144" s="43"/>
+      <c r="O144" s="43"/>
+      <c r="P144" s="43"/>
+      <c r="Q144" s="21"/>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A145" s="6"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="40"/>
+      <c r="E145" s="40"/>
+      <c r="F145" s="41"/>
+      <c r="G145" s="42"/>
+      <c r="H145" s="17"/>
+      <c r="I145" s="43"/>
+      <c r="J145" s="44"/>
+      <c r="K145" s="44"/>
+      <c r="L145" s="45"/>
+      <c r="M145" s="43"/>
+      <c r="N145" s="43"/>
+      <c r="O145" s="43"/>
+      <c r="P145" s="43"/>
+      <c r="Q145" s="21"/>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A146" s="6"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="40"/>
+      <c r="E146" s="40"/>
+      <c r="F146" s="41"/>
+      <c r="G146" s="42"/>
+      <c r="H146" s="17"/>
+      <c r="I146" s="43"/>
+      <c r="J146" s="44"/>
+      <c r="K146" s="44"/>
+      <c r="L146" s="45"/>
+      <c r="M146" s="43"/>
+      <c r="N146" s="43"/>
+      <c r="O146" s="43"/>
+      <c r="P146" s="43"/>
+      <c r="Q146" s="21"/>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A147" s="6"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="40"/>
+      <c r="E147" s="40"/>
+      <c r="F147" s="41"/>
+      <c r="G147" s="42"/>
+      <c r="H147" s="17"/>
+      <c r="I147" s="43"/>
+      <c r="J147" s="44"/>
+      <c r="K147" s="44"/>
+      <c r="L147" s="45"/>
+      <c r="M147" s="43"/>
+      <c r="N147" s="43"/>
+      <c r="O147" s="43"/>
+      <c r="P147" s="43"/>
+      <c r="Q147" s="21"/>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A148" s="6"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="40"/>
+      <c r="E148" s="40"/>
+      <c r="F148" s="41"/>
+      <c r="G148" s="42"/>
+      <c r="H148" s="17"/>
+      <c r="I148" s="43"/>
+      <c r="J148" s="44"/>
+      <c r="K148" s="44"/>
+      <c r="L148" s="45"/>
+      <c r="M148" s="43"/>
+      <c r="N148" s="43"/>
+      <c r="O148" s="43"/>
+      <c r="P148" s="43"/>
+      <c r="Q148" s="21"/>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A149" s="6"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="40"/>
+      <c r="E149" s="40"/>
+      <c r="F149" s="41"/>
+      <c r="G149" s="42"/>
+      <c r="H149" s="17"/>
+      <c r="I149" s="43"/>
+      <c r="J149" s="44"/>
+      <c r="K149" s="44"/>
+      <c r="L149" s="45"/>
+      <c r="M149" s="43"/>
+      <c r="N149" s="43"/>
+      <c r="O149" s="43"/>
+      <c r="P149" s="43"/>
+      <c r="Q149" s="21"/>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A150" s="6"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="40"/>
+      <c r="E150" s="40"/>
+      <c r="F150" s="41"/>
+      <c r="G150" s="42"/>
+      <c r="H150" s="17"/>
+      <c r="I150" s="43"/>
+      <c r="J150" s="44"/>
+      <c r="K150" s="44"/>
+      <c r="L150" s="45"/>
+      <c r="M150" s="43"/>
+      <c r="N150" s="43"/>
+      <c r="O150" s="43"/>
+      <c r="P150" s="43"/>
+      <c r="Q150" s="21"/>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A151" s="6"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="40"/>
+      <c r="E151" s="40"/>
+      <c r="F151" s="41"/>
+      <c r="G151" s="42"/>
+      <c r="H151" s="17"/>
+      <c r="I151" s="43"/>
+      <c r="J151" s="44"/>
+      <c r="K151" s="44"/>
+      <c r="L151" s="45"/>
+      <c r="M151" s="43"/>
+      <c r="N151" s="43"/>
+      <c r="O151" s="43"/>
+      <c r="P151" s="43"/>
+      <c r="Q151" s="21"/>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A152" s="6"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="40"/>
+      <c r="E152" s="40"/>
+      <c r="F152" s="41"/>
+      <c r="G152" s="42"/>
+      <c r="H152" s="17"/>
+      <c r="I152" s="43"/>
+      <c r="J152" s="44"/>
+      <c r="K152" s="44"/>
+      <c r="L152" s="45"/>
+      <c r="M152" s="43"/>
+      <c r="N152" s="43"/>
+      <c r="O152" s="43"/>
+      <c r="P152" s="43"/>
+      <c r="Q152" s="21"/>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A153" s="6"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="40"/>
+      <c r="E153" s="40"/>
+      <c r="F153" s="41"/>
+      <c r="G153" s="42"/>
+      <c r="H153" s="17"/>
+      <c r="I153" s="43"/>
+      <c r="J153" s="44"/>
+      <c r="K153" s="44"/>
+      <c r="L153" s="45"/>
+      <c r="M153" s="43"/>
+      <c r="N153" s="43"/>
+      <c r="O153" s="43"/>
+      <c r="P153" s="43"/>
+      <c r="Q153" s="21"/>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A154" s="6"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="40"/>
+      <c r="E154" s="40"/>
+      <c r="F154" s="41"/>
+      <c r="G154" s="42"/>
+      <c r="H154" s="17"/>
+      <c r="I154" s="43"/>
+      <c r="J154" s="44"/>
+      <c r="K154" s="44"/>
+      <c r="L154" s="45"/>
+      <c r="M154" s="43"/>
+      <c r="N154" s="43"/>
+      <c r="O154" s="43"/>
+      <c r="P154" s="43"/>
+      <c r="Q154" s="21"/>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A155" s="6"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="40"/>
+      <c r="E155" s="40"/>
+      <c r="F155" s="41"/>
+      <c r="G155" s="42"/>
+      <c r="H155" s="17"/>
+      <c r="I155" s="43"/>
+      <c r="J155" s="44"/>
+      <c r="K155" s="44"/>
+      <c r="L155" s="45"/>
+      <c r="M155" s="43"/>
+      <c r="N155" s="43"/>
+      <c r="O155" s="43"/>
+      <c r="P155" s="43"/>
+      <c r="Q155" s="21"/>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A156" s="6"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="40"/>
+      <c r="E156" s="40"/>
+      <c r="F156" s="41"/>
+      <c r="G156" s="42"/>
+      <c r="H156" s="17"/>
+      <c r="I156" s="43"/>
+      <c r="J156" s="44"/>
+      <c r="K156" s="44"/>
+      <c r="L156" s="45"/>
+      <c r="M156" s="43"/>
+      <c r="N156" s="43"/>
+      <c r="O156" s="43"/>
+      <c r="P156" s="43"/>
+      <c r="Q156" s="21"/>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A157" s="6"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="40"/>
+      <c r="E157" s="40"/>
+      <c r="F157" s="41"/>
+      <c r="G157" s="42"/>
+      <c r="H157" s="17"/>
+      <c r="I157" s="43"/>
+      <c r="J157" s="44"/>
+      <c r="K157" s="44"/>
+      <c r="L157" s="45"/>
+      <c r="M157" s="43"/>
+      <c r="N157" s="43"/>
+      <c r="O157" s="43"/>
+      <c r="P157" s="43"/>
+      <c r="Q157" s="21"/>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A158" s="6"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="40"/>
+      <c r="E158" s="40"/>
+      <c r="F158" s="41"/>
+      <c r="G158" s="42"/>
+      <c r="H158" s="17"/>
+      <c r="I158" s="43"/>
+      <c r="J158" s="44"/>
+      <c r="K158" s="44"/>
+      <c r="L158" s="45"/>
+      <c r="M158" s="43"/>
+      <c r="N158" s="43"/>
+      <c r="O158" s="43"/>
+      <c r="P158" s="43"/>
+      <c r="Q158" s="21"/>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A159" s="6"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="40"/>
+      <c r="E159" s="40"/>
+      <c r="F159" s="41"/>
+      <c r="G159" s="42"/>
+      <c r="H159" s="17"/>
+      <c r="I159" s="43"/>
+      <c r="J159" s="44"/>
+      <c r="K159" s="44"/>
+      <c r="L159" s="45"/>
+      <c r="M159" s="43"/>
+      <c r="N159" s="43"/>
+      <c r="O159" s="43"/>
+      <c r="P159" s="43"/>
+      <c r="Q159" s="21"/>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A160" s="6"/>
+      <c r="B160" s="15"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="40"/>
+      <c r="E160" s="40"/>
+      <c r="F160" s="41"/>
+      <c r="G160" s="42"/>
+      <c r="H160" s="17"/>
+      <c r="I160" s="43"/>
+      <c r="J160" s="44"/>
+      <c r="K160" s="44"/>
+      <c r="L160" s="45"/>
+      <c r="M160" s="43"/>
+      <c r="N160" s="43"/>
+      <c r="O160" s="43"/>
+      <c r="P160" s="43"/>
+      <c r="Q160" s="21"/>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A161" s="6"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="40"/>
+      <c r="E161" s="40"/>
+      <c r="F161" s="41"/>
+      <c r="G161" s="42"/>
+      <c r="H161" s="17"/>
+      <c r="I161" s="43"/>
+      <c r="J161" s="44"/>
+      <c r="K161" s="44"/>
+      <c r="L161" s="45"/>
+      <c r="M161" s="43"/>
+      <c r="N161" s="43"/>
+      <c r="O161" s="43"/>
+      <c r="P161" s="43"/>
+      <c r="Q161" s="21"/>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A162" s="6"/>
+      <c r="B162" s="15"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="40"/>
+      <c r="E162" s="40"/>
+      <c r="F162" s="41"/>
+      <c r="G162" s="42"/>
+      <c r="H162" s="17"/>
+      <c r="I162" s="43"/>
+      <c r="J162" s="44"/>
+      <c r="K162" s="44"/>
+      <c r="L162" s="45"/>
+      <c r="M162" s="43"/>
+      <c r="N162" s="43"/>
+      <c r="O162" s="43"/>
+      <c r="P162" s="43"/>
+      <c r="Q162" s="21"/>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A163" s="6"/>
+      <c r="B163" s="22"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="40"/>
+      <c r="E163" s="40"/>
+      <c r="F163" s="41"/>
+      <c r="G163" s="42"/>
+      <c r="H163" s="17"/>
+      <c r="I163" s="43"/>
+      <c r="J163" s="44"/>
+      <c r="K163" s="44"/>
+      <c r="L163" s="45"/>
+      <c r="M163" s="55"/>
+      <c r="N163" s="55"/>
+      <c r="O163" s="55"/>
+      <c r="P163" s="55"/>
+      <c r="Q163" s="4"/>
+    </row>
+    <row r="164" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="23"/>
+      <c r="B164" s="24"/>
+      <c r="C164" s="25"/>
+      <c r="D164" s="26"/>
+      <c r="E164" s="26"/>
+      <c r="F164" s="58"/>
+      <c r="G164" s="58"/>
+      <c r="H164" s="27"/>
+      <c r="I164" s="59"/>
+      <c r="J164" s="59"/>
+      <c r="K164" s="59"/>
+      <c r="L164" s="59"/>
+      <c r="M164" s="60"/>
+      <c r="N164" s="60"/>
+      <c r="O164" s="60"/>
+      <c r="P164" s="60"/>
+      <c r="Q164" s="4"/>
+    </row>
+    <row r="165" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B138" s="49"/>
-      <c r="C138" s="49"/>
-      <c r="D138" s="50"/>
-      <c r="E138" s="50"/>
-      <c r="F138" s="51">
-        <f>SUM(F7:G136)</f>
+      <c r="B165" s="61"/>
+      <c r="C165" s="61"/>
+      <c r="D165" s="62"/>
+      <c r="E165" s="62"/>
+      <c r="F165" s="63">
+        <f>SUM(F7:G163)</f>
         <v>0</v>
       </c>
-      <c r="G138" s="51"/>
-      <c r="H138" s="28">
-        <f>SUM(H7:H136)</f>
+      <c r="G165" s="63"/>
+      <c r="H165" s="28">
+        <f>SUM(H7:H163)</f>
         <v>0</v>
       </c>
-      <c r="I138" s="51">
+      <c r="I165" s="63">
         <v>0</v>
       </c>
-      <c r="J138" s="51"/>
-      <c r="K138" s="51"/>
-      <c r="L138" s="51"/>
-      <c r="M138" s="51"/>
-      <c r="N138" s="51"/>
-      <c r="O138" s="51"/>
-      <c r="P138" s="51"/>
-      <c r="Q138" s="17"/>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A139" s="29"/>
-      <c r="B139" s="29"/>
-      <c r="C139" s="30"/>
-      <c r="D139" s="29"/>
-      <c r="E139" s="29"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="29"/>
-      <c r="H139" s="29"/>
-      <c r="I139" s="29"/>
-      <c r="J139" s="29"/>
-      <c r="K139" s="29"/>
-      <c r="L139" s="29"/>
-      <c r="M139" s="29"/>
-      <c r="N139" s="29"/>
-      <c r="O139" s="29"/>
-      <c r="P139" s="29"/>
-      <c r="Q139" s="18"/>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A140" s="52" t="s">
+      <c r="J165" s="63"/>
+      <c r="K165" s="63"/>
+      <c r="L165" s="63"/>
+      <c r="M165" s="63"/>
+      <c r="N165" s="63"/>
+      <c r="O165" s="63"/>
+      <c r="P165" s="63"/>
+      <c r="Q165" s="17"/>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A166" s="29"/>
+      <c r="B166" s="29"/>
+      <c r="C166" s="30"/>
+      <c r="D166" s="29"/>
+      <c r="E166" s="29"/>
+      <c r="F166" s="29"/>
+      <c r="G166" s="29"/>
+      <c r="H166" s="29"/>
+      <c r="I166" s="29"/>
+      <c r="J166" s="29"/>
+      <c r="K166" s="29"/>
+      <c r="L166" s="29"/>
+      <c r="M166" s="29"/>
+      <c r="N166" s="29"/>
+      <c r="O166" s="29"/>
+      <c r="P166" s="29"/>
+      <c r="Q166" s="18"/>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A167" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B140" s="52"/>
-      <c r="C140" s="52"/>
-      <c r="D140" s="52"/>
-      <c r="E140" s="29"/>
-      <c r="F140" s="52" t="s">
+      <c r="B167" s="64"/>
+      <c r="C167" s="64"/>
+      <c r="D167" s="64"/>
+      <c r="E167" s="29"/>
+      <c r="F167" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G140" s="52"/>
-      <c r="H140" s="52"/>
-      <c r="I140" s="53" t="s">
+      <c r="G167" s="64"/>
+      <c r="H167" s="64"/>
+      <c r="I167" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="J140" s="53"/>
-      <c r="K140" s="53"/>
-      <c r="L140" s="53"/>
-      <c r="M140" s="54" t="s">
+      <c r="J167" s="65"/>
+      <c r="K167" s="65"/>
+      <c r="L167" s="65"/>
+      <c r="M167" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="N140" s="54"/>
-      <c r="O140" s="54"/>
-      <c r="P140" s="54"/>
-      <c r="Q140" s="31"/>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A141" s="52"/>
-      <c r="B141" s="52"/>
-      <c r="C141" s="52"/>
-      <c r="D141" s="52"/>
-      <c r="E141" s="29"/>
-      <c r="F141" s="52"/>
-      <c r="G141" s="52"/>
-      <c r="H141" s="52"/>
-      <c r="I141" s="32" t="s">
+      <c r="N167" s="66"/>
+      <c r="O167" s="66"/>
+      <c r="P167" s="66"/>
+      <c r="Q167" s="31"/>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A168" s="64"/>
+      <c r="B168" s="64"/>
+      <c r="C168" s="64"/>
+      <c r="D168" s="64"/>
+      <c r="E168" s="29"/>
+      <c r="F168" s="64"/>
+      <c r="G168" s="64"/>
+      <c r="H168" s="64"/>
+      <c r="I168" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J141" s="48" t="s">
+      <c r="J168" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="K141" s="48"/>
-      <c r="L141" s="48"/>
-      <c r="M141" s="32" t="s">
+      <c r="K168" s="67"/>
+      <c r="L168" s="67"/>
+      <c r="M168" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N141" s="18"/>
-      <c r="O141" s="33" t="s">
+      <c r="N168" s="18"/>
+      <c r="O168" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="P141" s="34"/>
-      <c r="Q141" s="18"/>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A142" s="46" t="s">
+      <c r="P168" s="34"/>
+      <c r="Q168" s="18"/>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A169" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B142" s="46"/>
-      <c r="C142" s="46"/>
-      <c r="D142" s="46"/>
-      <c r="E142" s="29"/>
-      <c r="F142" s="32" t="s">
+      <c r="B169" s="68"/>
+      <c r="C169" s="68"/>
+      <c r="D169" s="68"/>
+      <c r="E169" s="29"/>
+      <c r="F169" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G142" s="18"/>
-      <c r="H142" s="18"/>
-      <c r="I142" s="20">
-        <f>F138/1.13</f>
+      <c r="G169" s="18"/>
+      <c r="H169" s="18"/>
+      <c r="I169" s="20">
+        <f>F165/1.13</f>
         <v>0</v>
       </c>
-      <c r="J142" s="47">
-        <f>I142*0.13</f>
+      <c r="J169" s="69">
+        <f>I169*0.13</f>
         <v>0</v>
       </c>
-      <c r="K142" s="47"/>
-      <c r="L142" s="47"/>
-      <c r="M142" s="48"/>
-      <c r="N142" s="48"/>
-      <c r="O142" s="48"/>
-      <c r="P142" s="48"/>
-      <c r="Q142" s="32"/>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A143" s="46"/>
-      <c r="B143" s="46"/>
-      <c r="C143" s="46"/>
-      <c r="D143" s="46"/>
-      <c r="E143" s="29"/>
-      <c r="F143" s="32" t="s">
+      <c r="K169" s="69"/>
+      <c r="L169" s="69"/>
+      <c r="M169" s="67"/>
+      <c r="N169" s="67"/>
+      <c r="O169" s="67"/>
+      <c r="P169" s="67"/>
+      <c r="Q169" s="32"/>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A170" s="68"/>
+      <c r="B170" s="68"/>
+      <c r="C170" s="68"/>
+      <c r="D170" s="68"/>
+      <c r="E170" s="29"/>
+      <c r="F170" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G143" s="18"/>
-      <c r="H143" s="18"/>
-      <c r="I143" s="35"/>
-      <c r="J143" s="48"/>
-      <c r="K143" s="48"/>
-      <c r="L143" s="48"/>
-      <c r="M143" s="48"/>
-      <c r="N143" s="48"/>
-      <c r="O143" s="48"/>
-      <c r="P143" s="48"/>
-      <c r="Q143" s="32"/>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A144" s="46" t="s">
+      <c r="G170" s="18"/>
+      <c r="H170" s="18"/>
+      <c r="I170" s="35"/>
+      <c r="J170" s="67"/>
+      <c r="K170" s="67"/>
+      <c r="L170" s="67"/>
+      <c r="M170" s="67"/>
+      <c r="N170" s="67"/>
+      <c r="O170" s="67"/>
+      <c r="P170" s="67"/>
+      <c r="Q170" s="32"/>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A171" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="B144" s="46"/>
-      <c r="C144" s="46"/>
-      <c r="D144" s="46"/>
-      <c r="E144" s="29"/>
-      <c r="F144" s="32" t="s">
+      <c r="B171" s="68"/>
+      <c r="C171" s="68"/>
+      <c r="D171" s="68"/>
+      <c r="E171" s="29"/>
+      <c r="F171" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G144" s="18"/>
-      <c r="H144" s="18"/>
-      <c r="I144" s="36">
-        <f>H138</f>
+      <c r="G171" s="18"/>
+      <c r="H171" s="18"/>
+      <c r="I171" s="36">
+        <f>H165</f>
         <v>0</v>
       </c>
-      <c r="J144" s="48"/>
-      <c r="K144" s="48"/>
-      <c r="L144" s="48"/>
-      <c r="M144" s="48"/>
-      <c r="N144" s="48"/>
-      <c r="O144" s="48"/>
-      <c r="P144" s="48"/>
-      <c r="Q144" s="32"/>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A145" s="46"/>
-      <c r="B145" s="46"/>
-      <c r="C145" s="46"/>
-      <c r="D145" s="46"/>
-      <c r="E145" s="29"/>
-      <c r="F145" s="37"/>
-      <c r="G145" s="29"/>
-      <c r="H145" s="38"/>
-      <c r="I145" s="39"/>
-      <c r="J145" s="29"/>
-      <c r="K145" s="29"/>
-      <c r="L145" s="27"/>
-      <c r="M145" s="27"/>
-      <c r="N145" s="29"/>
-      <c r="O145" s="29"/>
-      <c r="P145" s="29"/>
-      <c r="Q145" s="29"/>
+      <c r="J171" s="67"/>
+      <c r="K171" s="67"/>
+      <c r="L171" s="67"/>
+      <c r="M171" s="67"/>
+      <c r="N171" s="67"/>
+      <c r="O171" s="67"/>
+      <c r="P171" s="67"/>
+      <c r="Q171" s="32"/>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A172" s="68"/>
+      <c r="B172" s="68"/>
+      <c r="C172" s="68"/>
+      <c r="D172" s="68"/>
+      <c r="E172" s="29"/>
+      <c r="F172" s="37"/>
+      <c r="G172" s="29"/>
+      <c r="H172" s="38"/>
+      <c r="I172" s="39"/>
+      <c r="J172" s="29"/>
+      <c r="K172" s="29"/>
+      <c r="L172" s="27"/>
+      <c r="M172" s="27"/>
+      <c r="N172" s="29"/>
+      <c r="O172" s="29"/>
+      <c r="P172" s="29"/>
+      <c r="Q172" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="554">
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:P50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="M51:P51"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="I5:L6"/>
-    <mergeCell ref="M5:P6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="M15:P15"/>
+  <mergeCells count="662">
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="I124:L124"/>
+    <mergeCell ref="M124:P124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="I125:L125"/>
+    <mergeCell ref="M125:P125"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="I126:L126"/>
+    <mergeCell ref="M126:P126"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="I121:L121"/>
+    <mergeCell ref="M121:P121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="I122:L122"/>
+    <mergeCell ref="M122:P122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="I123:L123"/>
+    <mergeCell ref="M123:P123"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="I118:L118"/>
+    <mergeCell ref="M118:P118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="I119:L119"/>
+    <mergeCell ref="M119:P119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="I120:L120"/>
+    <mergeCell ref="M120:P120"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="I115:L115"/>
+    <mergeCell ref="M115:P115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="I116:L116"/>
+    <mergeCell ref="M116:P116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="I117:L117"/>
+    <mergeCell ref="M117:P117"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="I112:L112"/>
+    <mergeCell ref="M112:P112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="I113:L113"/>
+    <mergeCell ref="M113:P113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="I114:L114"/>
+    <mergeCell ref="M114:P114"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="I109:L109"/>
+    <mergeCell ref="M109:P109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="I110:L110"/>
+    <mergeCell ref="M110:P110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="I111:L111"/>
+    <mergeCell ref="M111:P111"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="I106:L106"/>
+    <mergeCell ref="M106:P106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="I107:L107"/>
+    <mergeCell ref="M107:P107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="I108:L108"/>
+    <mergeCell ref="M108:P108"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="I103:L103"/>
+    <mergeCell ref="M103:P103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="I104:L104"/>
+    <mergeCell ref="M104:P104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="I105:L105"/>
+    <mergeCell ref="M105:P105"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="I100:L100"/>
+    <mergeCell ref="M100:P100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="I101:L101"/>
+    <mergeCell ref="M101:P101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="I102:L102"/>
+    <mergeCell ref="M102:P102"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="I160:L160"/>
+    <mergeCell ref="M160:P160"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="I161:L161"/>
+    <mergeCell ref="M161:P161"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="I162:L162"/>
+    <mergeCell ref="M162:P162"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="I157:L157"/>
+    <mergeCell ref="M157:P157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="I158:L158"/>
+    <mergeCell ref="M158:P158"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="I159:L159"/>
+    <mergeCell ref="M159:P159"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="I154:L154"/>
+    <mergeCell ref="M154:P154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="I155:L155"/>
+    <mergeCell ref="M155:P155"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="I156:L156"/>
+    <mergeCell ref="M156:P156"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="I151:L151"/>
+    <mergeCell ref="M151:P151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="I152:L152"/>
+    <mergeCell ref="M152:P152"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="I153:L153"/>
+    <mergeCell ref="M153:P153"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="I148:L148"/>
+    <mergeCell ref="M148:P148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="I149:L149"/>
+    <mergeCell ref="M149:P149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="I150:L150"/>
+    <mergeCell ref="M150:P150"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="I145:L145"/>
+    <mergeCell ref="M145:P145"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="I146:L146"/>
+    <mergeCell ref="M146:P146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="I147:L147"/>
+    <mergeCell ref="M147:P147"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="I142:L142"/>
+    <mergeCell ref="M142:P142"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="I143:L143"/>
+    <mergeCell ref="M143:P143"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="I144:L144"/>
+    <mergeCell ref="M144:P144"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="I139:L139"/>
+    <mergeCell ref="M139:P139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="I140:L140"/>
+    <mergeCell ref="M140:P140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="I141:L141"/>
+    <mergeCell ref="M141:P141"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="I136:L136"/>
+    <mergeCell ref="M136:P136"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="I137:L137"/>
+    <mergeCell ref="M137:P137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="I138:L138"/>
+    <mergeCell ref="M138:P138"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="I133:L133"/>
+    <mergeCell ref="M133:P133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="I134:L134"/>
+    <mergeCell ref="M134:P134"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="I135:L135"/>
+    <mergeCell ref="M135:P135"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="I130:L130"/>
+    <mergeCell ref="M130:P130"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="I131:L131"/>
+    <mergeCell ref="M131:P131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="I132:L132"/>
+    <mergeCell ref="M132:P132"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="I127:L127"/>
+    <mergeCell ref="M127:P127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="I128:L128"/>
+    <mergeCell ref="M128:P128"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="I129:L129"/>
+    <mergeCell ref="M129:P129"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="J169:L169"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="O169:P169"/>
+    <mergeCell ref="J170:L171"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="O170:P171"/>
+    <mergeCell ref="A171:D172"/>
+    <mergeCell ref="M171:N171"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="I165:L165"/>
+    <mergeCell ref="M165:P165"/>
+    <mergeCell ref="A167:D168"/>
+    <mergeCell ref="F167:H168"/>
+    <mergeCell ref="I167:L167"/>
+    <mergeCell ref="M167:P167"/>
+    <mergeCell ref="J168:L168"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="I96:L96"/>
+    <mergeCell ref="M96:P96"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="I163:L163"/>
+    <mergeCell ref="M163:P163"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="I164:L164"/>
+    <mergeCell ref="M164:P164"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="I97:L97"/>
+    <mergeCell ref="M97:P97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="I98:L98"/>
+    <mergeCell ref="M98:P98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="I99:L99"/>
+    <mergeCell ref="M99:P99"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="I93:L93"/>
+    <mergeCell ref="M93:P93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="M94:P94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="M95:P95"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="I90:L90"/>
+    <mergeCell ref="M90:P90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="M91:P91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="I92:L92"/>
+    <mergeCell ref="M92:P92"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="I87:L87"/>
+    <mergeCell ref="M87:P87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="I88:L88"/>
+    <mergeCell ref="M88:P88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="M89:P89"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="M84:P84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="I85:L85"/>
+    <mergeCell ref="M85:P85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="M86:P86"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="M81:P81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="M82:P82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="M83:P83"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="M78:P78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="M79:P79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="M80:P80"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="M75:P75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="M76:P76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="M77:P77"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="M72:P72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="M73:P73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="M74:P74"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="M69:P69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="M70:P70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="M71:P71"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="M66:P66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="M67:P67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="M68:P68"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="M64:P64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="M65:P65"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="M60:P60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="M61:P61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="M62:P62"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="M59:P59"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:P55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:P56"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="I16:L16"/>
@@ -3951,360 +4750,182 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="M19:P19"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:P55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:P56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="M59:P59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="M60:P60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="M61:P61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="M62:P62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="M64:P64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="M65:P65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="M66:P66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="M67:P67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="I68:L68"/>
-    <mergeCell ref="M68:P68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="I69:L69"/>
-    <mergeCell ref="M69:P69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="M70:P70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="I71:L71"/>
-    <mergeCell ref="M71:P71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="M72:P72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="M73:P73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="M74:P74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="M75:P75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="I76:L76"/>
-    <mergeCell ref="M76:P76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="M77:P77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="I78:L78"/>
-    <mergeCell ref="M78:P78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="M79:P79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="M80:P80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="I81:L81"/>
-    <mergeCell ref="M81:P81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="I82:L82"/>
-    <mergeCell ref="M82:P82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="I83:L83"/>
-    <mergeCell ref="M83:P83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="I84:L84"/>
-    <mergeCell ref="M84:P84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="I85:L85"/>
-    <mergeCell ref="M85:P85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="I86:L86"/>
-    <mergeCell ref="M86:P86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="I87:L87"/>
-    <mergeCell ref="M87:P87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="I88:L88"/>
-    <mergeCell ref="M88:P88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="I89:L89"/>
-    <mergeCell ref="M89:P89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="I90:L90"/>
-    <mergeCell ref="M90:P90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="M91:P91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="I92:L92"/>
-    <mergeCell ref="M92:P92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="I93:L93"/>
-    <mergeCell ref="M93:P93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="I94:L94"/>
-    <mergeCell ref="M94:P94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="I95:L95"/>
-    <mergeCell ref="M95:P95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="I96:L96"/>
-    <mergeCell ref="M96:P96"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="I136:L136"/>
-    <mergeCell ref="M136:P136"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="I137:L137"/>
-    <mergeCell ref="M137:P137"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="I97:L97"/>
-    <mergeCell ref="M97:P97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="I98:L98"/>
-    <mergeCell ref="M98:P98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="I99:L99"/>
-    <mergeCell ref="M99:P99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="I138:L138"/>
-    <mergeCell ref="M138:P138"/>
-    <mergeCell ref="A140:D141"/>
-    <mergeCell ref="F140:H141"/>
-    <mergeCell ref="I140:L140"/>
-    <mergeCell ref="M140:P140"/>
-    <mergeCell ref="J141:L141"/>
-    <mergeCell ref="A142:D143"/>
-    <mergeCell ref="J142:L142"/>
-    <mergeCell ref="M142:N142"/>
-    <mergeCell ref="O142:P142"/>
-    <mergeCell ref="J143:L144"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="O143:P144"/>
-    <mergeCell ref="A144:D145"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="I100:L100"/>
-    <mergeCell ref="M100:P100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="I101:L101"/>
-    <mergeCell ref="M101:P101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="I102:L102"/>
-    <mergeCell ref="M102:P102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="I103:L103"/>
-    <mergeCell ref="M103:P103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="I104:L104"/>
-    <mergeCell ref="M104:P104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="I105:L105"/>
-    <mergeCell ref="M105:P105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="I106:L106"/>
-    <mergeCell ref="M106:P106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="I107:L107"/>
-    <mergeCell ref="M107:P107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="I108:L108"/>
-    <mergeCell ref="M108:P108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="I109:L109"/>
-    <mergeCell ref="M109:P109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="I110:L110"/>
-    <mergeCell ref="M110:P110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="I111:L111"/>
-    <mergeCell ref="M111:P111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="I112:L112"/>
-    <mergeCell ref="M112:P112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="I113:L113"/>
-    <mergeCell ref="M113:P113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="I114:L114"/>
-    <mergeCell ref="M114:P114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="I115:L115"/>
-    <mergeCell ref="M115:P115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="I116:L116"/>
-    <mergeCell ref="M116:P116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="I117:L117"/>
-    <mergeCell ref="M117:P117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="I118:L118"/>
-    <mergeCell ref="M118:P118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="I119:L119"/>
-    <mergeCell ref="M119:P119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="I120:L120"/>
-    <mergeCell ref="M120:P120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="I121:L121"/>
-    <mergeCell ref="M121:P121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="I122:L122"/>
-    <mergeCell ref="M122:P122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="I123:L123"/>
-    <mergeCell ref="M123:P123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="I124:L124"/>
-    <mergeCell ref="M124:P124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="I125:L125"/>
-    <mergeCell ref="M125:P125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="I126:L126"/>
-    <mergeCell ref="M126:P126"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="I127:L127"/>
-    <mergeCell ref="M127:P127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="I128:L128"/>
-    <mergeCell ref="M128:P128"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="I129:L129"/>
-    <mergeCell ref="M129:P129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="I130:L130"/>
-    <mergeCell ref="M130:P130"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="I131:L131"/>
-    <mergeCell ref="M131:P131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="I132:L132"/>
-    <mergeCell ref="M132:P132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="I133:L133"/>
-    <mergeCell ref="M133:P133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="I134:L134"/>
-    <mergeCell ref="M134:P134"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="I135:L135"/>
-    <mergeCell ref="M135:P135"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="I5:L6"/>
+    <mergeCell ref="M5:P6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:P50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:P51"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:P49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
